--- a/data_capture/excels/BMOB3_SA_dados.xlsx
+++ b/data_capture/excels/BMOB3_SA_dados.xlsx
@@ -943,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1062"/>
+  <dimension ref="A1:H1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1032,16 +1032,16 @@
         <v>44244</v>
       </c>
       <c r="B4">
-        <v>18.83348758359743</v>
+        <v>18.83348950844474</v>
       </c>
       <c r="C4">
-        <v>18.9533365275363</v>
+        <v>18.95333846463258</v>
       </c>
       <c r="D4">
-        <v>18.42257551910469</v>
+        <v>18.42257740195537</v>
       </c>
       <c r="E4">
-        <v>18.66227340698242</v>
+        <v>18.66227531433105</v>
       </c>
       <c r="F4">
         <v>943200</v>
@@ -1058,16 +1058,16 @@
         <v>44245</v>
       </c>
       <c r="B5">
-        <v>18.49106414697891</v>
+        <v>18.49106604992265</v>
       </c>
       <c r="C5">
-        <v>18.74788382469013</v>
+        <v>18.74788575406357</v>
       </c>
       <c r="D5">
-        <v>17.84901331988117</v>
+        <v>17.84901515675047</v>
       </c>
       <c r="E5">
-        <v>18.53386688232422</v>
+        <v>18.53386878967285</v>
       </c>
       <c r="F5">
         <v>1312800</v>
@@ -1110,16 +1110,16 @@
         <v>44249</v>
       </c>
       <c r="B7">
-        <v>18.70508004582552</v>
+        <v>18.70507822593167</v>
       </c>
       <c r="C7">
-        <v>19.81796743091462</v>
+        <v>19.8179655027434</v>
       </c>
       <c r="D7">
-        <v>18.15719559361678</v>
+        <v>18.15719382702885</v>
       </c>
       <c r="E7">
-        <v>19.60395050048828</v>
+        <v>19.60394859313965</v>
       </c>
       <c r="F7">
         <v>1349700</v>
@@ -1162,16 +1162,16 @@
         <v>44251</v>
       </c>
       <c r="B9">
-        <v>21.45305479843397</v>
+        <v>21.45305839092962</v>
       </c>
       <c r="C9">
-        <v>23.59322391810909</v>
+        <v>23.59322786899418</v>
       </c>
       <c r="D9">
-        <v>21.45305479843397</v>
+        <v>21.45305839092962</v>
       </c>
       <c r="E9">
-        <v>22.77996063232422</v>
+        <v>22.77996444702148</v>
       </c>
       <c r="F9">
         <v>3475200</v>
@@ -1188,16 +1188,16 @@
         <v>44252</v>
       </c>
       <c r="B10">
-        <v>23.37064751220629</v>
+        <v>23.37064957033347</v>
       </c>
       <c r="C10">
-        <v>24.39792940337077</v>
+        <v>24.39793155196515</v>
       </c>
       <c r="D10">
-        <v>21.48729955549747</v>
+        <v>21.48730144776833</v>
       </c>
       <c r="E10">
-        <v>21.65851211547852</v>
+        <v>21.65851402282715</v>
       </c>
       <c r="F10">
         <v>3789400</v>
@@ -1240,16 +1240,16 @@
         <v>44256</v>
       </c>
       <c r="B12">
-        <v>23.11382675170898</v>
+        <v>23.11382873241718</v>
       </c>
       <c r="C12">
-        <v>23.19943384401995</v>
+        <v>23.19943583206413</v>
       </c>
       <c r="D12">
-        <v>22.25775909423828</v>
+        <v>22.25776100158691</v>
       </c>
       <c r="E12">
-        <v>22.25775909423828</v>
+        <v>22.25776100158691</v>
       </c>
       <c r="F12">
         <v>1040700</v>
@@ -1266,16 +1266,16 @@
         <v>44257</v>
       </c>
       <c r="B13">
-        <v>22.04374297994998</v>
+        <v>22.04374492275955</v>
       </c>
       <c r="C13">
-        <v>22.47177682422085</v>
+        <v>22.47177880475488</v>
       </c>
       <c r="D13">
-        <v>21.30752424530182</v>
+        <v>21.30752612322528</v>
       </c>
       <c r="E13">
-        <v>21.64139175415039</v>
+        <v>21.64139366149902</v>
       </c>
       <c r="F13">
         <v>1205100</v>
@@ -1292,16 +1292,16 @@
         <v>44258</v>
       </c>
       <c r="B14">
-        <v>21.82972576994341</v>
+        <v>21.82972762988187</v>
       </c>
       <c r="C14">
-        <v>22.66011082906349</v>
+        <v>22.6601127597525</v>
       </c>
       <c r="D14">
-        <v>20.9822189654016</v>
+        <v>20.9822207531307</v>
       </c>
       <c r="E14">
-        <v>22.38616943359375</v>
+        <v>22.38617134094238</v>
       </c>
       <c r="F14">
         <v>1719200</v>
@@ -1318,16 +1318,16 @@
         <v>44259</v>
       </c>
       <c r="B15">
-        <v>22.60018772999831</v>
+        <v>22.60018573261612</v>
       </c>
       <c r="C15">
-        <v>23.1480721871414</v>
+        <v>23.14807014133772</v>
       </c>
       <c r="D15">
-        <v>21.47873946165384</v>
+        <v>21.47873756338414</v>
       </c>
       <c r="E15">
-        <v>21.58146667480469</v>
+        <v>21.58146476745605</v>
       </c>
       <c r="F15">
         <v>1903500</v>
@@ -1474,16 +1474,16 @@
         <v>44267</v>
       </c>
       <c r="B21">
-        <v>18.87629439642037</v>
+        <v>18.87629248993637</v>
       </c>
       <c r="C21">
-        <v>18.91909876624725</v>
+        <v>18.91909685544006</v>
       </c>
       <c r="D21">
-        <v>18.43114037995906</v>
+        <v>18.43113851843512</v>
       </c>
       <c r="E21">
-        <v>18.88485527038574</v>
+        <v>18.88485336303711</v>
       </c>
       <c r="F21">
         <v>2120900</v>
@@ -1500,16 +1500,16 @@
         <v>44270</v>
       </c>
       <c r="B22">
-        <v>18.88485337711176</v>
+        <v>18.88485529576699</v>
       </c>
       <c r="C22">
-        <v>19.22728013729854</v>
+        <v>19.2272820907435</v>
       </c>
       <c r="D22">
-        <v>18.71364081342816</v>
+        <v>18.71364271468861</v>
       </c>
       <c r="E22">
-        <v>18.7735652923584</v>
+        <v>18.77356719970703</v>
       </c>
       <c r="F22">
         <v>430400</v>
@@ -1526,16 +1526,16 @@
         <v>44271</v>
       </c>
       <c r="B23">
-        <v>18.66227574398982</v>
+        <v>18.66227384535057</v>
       </c>
       <c r="C23">
-        <v>19.41561625605061</v>
+        <v>19.41561428076895</v>
       </c>
       <c r="D23">
-        <v>18.66227574398982</v>
+        <v>18.66227384535057</v>
       </c>
       <c r="E23">
-        <v>18.74788284301758</v>
+        <v>18.74788093566895</v>
       </c>
       <c r="F23">
         <v>951900</v>
@@ -1552,16 +1552,16 @@
         <v>44272</v>
       </c>
       <c r="B24">
-        <v>18.68795836354403</v>
+        <v>18.68795646229191</v>
       </c>
       <c r="C24">
-        <v>18.91053616788837</v>
+        <v>18.91053424399191</v>
       </c>
       <c r="D24">
-        <v>18.3284098538831</v>
+        <v>18.32840798921029</v>
       </c>
       <c r="E24">
-        <v>18.74788284301758</v>
+        <v>18.74788093566895</v>
       </c>
       <c r="F24">
         <v>686800</v>
@@ -1578,16 +1578,16 @@
         <v>44273</v>
       </c>
       <c r="B25">
-        <v>18.66227754565952</v>
+        <v>18.6622754892698</v>
       </c>
       <c r="C25">
-        <v>18.66227754565952</v>
+        <v>18.6622754892698</v>
       </c>
       <c r="D25">
-        <v>17.18128063093524</v>
+        <v>17.18127873773605</v>
       </c>
       <c r="E25">
-        <v>17.30969047546387</v>
+        <v>17.30968856811523</v>
       </c>
       <c r="F25">
         <v>1160400</v>
@@ -1630,16 +1630,16 @@
         <v>44277</v>
       </c>
       <c r="B27">
-        <v>17.07855330966376</v>
+        <v>17.07855138300013</v>
       </c>
       <c r="C27">
-        <v>17.12135604665249</v>
+        <v>17.12135411516021</v>
       </c>
       <c r="D27">
-        <v>16.69332214548618</v>
+        <v>16.6933202622812</v>
       </c>
       <c r="E27">
-        <v>16.90733909606934</v>
+        <v>16.9073371887207</v>
       </c>
       <c r="F27">
         <v>451300</v>
@@ -1656,16 +1656,16 @@
         <v>44278</v>
       </c>
       <c r="B28">
-        <v>16.76180750436</v>
+        <v>16.76180561342906</v>
       </c>
       <c r="C28">
-        <v>17.48090458894498</v>
+        <v>17.48090261689135</v>
       </c>
       <c r="D28">
-        <v>16.72756564133297</v>
+        <v>16.72756375426491</v>
       </c>
       <c r="E28">
-        <v>16.90733909606934</v>
+        <v>16.9073371887207</v>
       </c>
       <c r="F28">
         <v>925500</v>
@@ -1682,16 +1682,16 @@
         <v>44279</v>
       </c>
       <c r="B29">
-        <v>17.3781738542512</v>
+        <v>17.3781718987372</v>
       </c>
       <c r="C29">
-        <v>18.14863609925765</v>
+        <v>18.14863405704584</v>
       </c>
       <c r="D29">
-        <v>16.88165464792458</v>
+        <v>16.8816527482824</v>
       </c>
       <c r="E29">
-        <v>16.95013999938965</v>
+        <v>16.95013809204102</v>
       </c>
       <c r="F29">
         <v>1136200</v>
@@ -1708,16 +1708,16 @@
         <v>44280</v>
       </c>
       <c r="B30">
-        <v>16.86453230589426</v>
+        <v>16.86453419787656</v>
       </c>
       <c r="C30">
-        <v>17.49802213143042</v>
+        <v>17.49802409448208</v>
       </c>
       <c r="D30">
-        <v>16.69331813344909</v>
+        <v>16.69332000622337</v>
       </c>
       <c r="E30">
-        <v>17.00150299072266</v>
+        <v>17.00150489807129</v>
       </c>
       <c r="F30">
         <v>2237000</v>
@@ -1734,16 +1734,16 @@
         <v>44281</v>
       </c>
       <c r="B31">
-        <v>17.0186250900271</v>
+        <v>17.01862699450172</v>
       </c>
       <c r="C31">
-        <v>17.18127840957115</v>
+        <v>17.18128033224753</v>
       </c>
       <c r="D31">
-        <v>16.7361228154609</v>
+        <v>16.736124688322</v>
       </c>
       <c r="E31">
-        <v>17.04430770874023</v>
+        <v>17.04430961608887</v>
       </c>
       <c r="F31">
         <v>725300</v>
@@ -1838,16 +1838,16 @@
         <v>44287</v>
       </c>
       <c r="B35">
-        <v>16.00846489669872</v>
+        <v>16.00846870122361</v>
       </c>
       <c r="C35">
-        <v>16.53066502641246</v>
+        <v>16.53066895504191</v>
       </c>
       <c r="D35">
-        <v>15.89717519346081</v>
+        <v>15.89717897153692</v>
       </c>
       <c r="E35">
-        <v>16.05126762390137</v>
+        <v>16.05127143859863</v>
       </c>
       <c r="F35">
         <v>272900</v>
@@ -1864,16 +1864,16 @@
         <v>44291</v>
       </c>
       <c r="B36">
-        <v>16.17968012356612</v>
+        <v>16.17967813301464</v>
       </c>
       <c r="C36">
-        <v>16.31665083273001</v>
+        <v>16.31664882532732</v>
       </c>
       <c r="D36">
-        <v>15.49482657774668</v>
+        <v>15.49482467145127</v>
       </c>
       <c r="E36">
-        <v>15.50338745117188</v>
+        <v>15.50338554382324</v>
       </c>
       <c r="F36">
         <v>641300</v>
@@ -1916,16 +1916,16 @@
         <v>44293</v>
       </c>
       <c r="B38">
-        <v>15.23800347906181</v>
+        <v>15.23800541578759</v>
       </c>
       <c r="C38">
-        <v>15.33217144283038</v>
+        <v>15.33217339152475</v>
       </c>
       <c r="D38">
-        <v>14.94694034815847</v>
+        <v>14.94694224789059</v>
       </c>
       <c r="E38">
-        <v>15.00686645507812</v>
+        <v>15.00686836242676</v>
       </c>
       <c r="F38">
         <v>750200</v>
@@ -1942,16 +1942,16 @@
         <v>44294</v>
       </c>
       <c r="B39">
-        <v>15.62323774684036</v>
+        <v>15.62323591574556</v>
       </c>
       <c r="C39">
-        <v>16.27384948730469</v>
+        <v>16.27384757995605</v>
       </c>
       <c r="D39">
-        <v>15.62323774684036</v>
+        <v>15.62323591574556</v>
       </c>
       <c r="E39">
-        <v>16.27384948730469</v>
+        <v>16.27384757995605</v>
       </c>
       <c r="F39">
         <v>2047300</v>
@@ -1968,16 +1968,16 @@
         <v>44295</v>
       </c>
       <c r="B40">
-        <v>16.17967777964077</v>
+        <v>16.17967875763555</v>
       </c>
       <c r="C40">
-        <v>16.26528486867134</v>
+        <v>16.26528585184072</v>
       </c>
       <c r="D40">
-        <v>15.69171949483173</v>
+        <v>15.69172044333145</v>
       </c>
       <c r="E40">
-        <v>15.7773265838623</v>
+        <v>15.77732753753662</v>
       </c>
       <c r="F40">
         <v>596500</v>
@@ -1994,16 +1994,16 @@
         <v>44298</v>
       </c>
       <c r="B41">
-        <v>15.74308535743953</v>
+        <v>15.74308439592251</v>
       </c>
       <c r="C41">
-        <v>15.95710229436097</v>
+        <v>15.95710131977277</v>
       </c>
       <c r="D41">
-        <v>15.37497596468349</v>
+        <v>15.37497502564895</v>
       </c>
       <c r="E41">
-        <v>15.61467552185059</v>
+        <v>15.61467456817627</v>
       </c>
       <c r="F41">
         <v>580700</v>
@@ -2020,16 +2020,16 @@
         <v>44299</v>
       </c>
       <c r="B42">
-        <v>15.71740495612126</v>
+        <v>15.71740298433513</v>
       </c>
       <c r="C42">
-        <v>15.82869304902974</v>
+        <v>15.82869106328226</v>
       </c>
       <c r="D42">
-        <v>15.20376396179199</v>
+        <v>15.20376205444336</v>
       </c>
       <c r="E42">
-        <v>15.20376396179199</v>
+        <v>15.20376205444336</v>
       </c>
       <c r="F42">
         <v>1048600</v>
@@ -2046,16 +2046,16 @@
         <v>44300</v>
       </c>
       <c r="B43">
-        <v>15.24656357875604</v>
+        <v>15.24656640957922</v>
       </c>
       <c r="C43">
-        <v>15.47770222384467</v>
+        <v>15.47770509758326</v>
       </c>
       <c r="D43">
-        <v>15.0667901655667</v>
+        <v>15.06679296301142</v>
       </c>
       <c r="E43">
-        <v>15.40921688079834</v>
+        <v>15.40921974182129</v>
       </c>
       <c r="F43">
         <v>853500</v>
@@ -2072,16 +2072,16 @@
         <v>44301</v>
       </c>
       <c r="B44">
-        <v>15.50338627605397</v>
+        <v>15.50338803392092</v>
       </c>
       <c r="C44">
-        <v>16.99294384992126</v>
+        <v>16.99294577668318</v>
       </c>
       <c r="D44">
-        <v>15.28936935510488</v>
+        <v>15.28937108870531</v>
       </c>
       <c r="E44">
-        <v>16.82172966003418</v>
+        <v>16.82173156738281</v>
       </c>
       <c r="F44">
         <v>1764300</v>
@@ -2098,16 +2098,16 @@
         <v>44302</v>
       </c>
       <c r="B45">
-        <v>16.83029261100256</v>
+        <v>16.83029082195316</v>
       </c>
       <c r="C45">
-        <v>18.40545747431358</v>
+        <v>18.40545551782516</v>
       </c>
       <c r="D45">
-        <v>16.58203380111296</v>
+        <v>16.58203203845331</v>
       </c>
       <c r="E45">
-        <v>17.94318008422852</v>
+        <v>17.94317817687988</v>
       </c>
       <c r="F45">
         <v>2422900</v>
@@ -2150,16 +2150,16 @@
         <v>44306</v>
       </c>
       <c r="B47">
-        <v>17.93461649854617</v>
+        <v>17.93461843079736</v>
       </c>
       <c r="C47">
-        <v>18.31984593080866</v>
+        <v>18.31984790456395</v>
       </c>
       <c r="D47">
-        <v>17.40385387919113</v>
+        <v>17.40385575425868</v>
       </c>
       <c r="E47">
-        <v>17.70347785949707</v>
+        <v>17.7034797668457</v>
       </c>
       <c r="F47">
         <v>450500</v>
@@ -2228,16 +2228,16 @@
         <v>44312</v>
       </c>
       <c r="B50">
-        <v>16.47930231588876</v>
+        <v>16.47930330395284</v>
       </c>
       <c r="C50">
-        <v>16.69331922908212</v>
+        <v>16.6933202299782</v>
       </c>
       <c r="D50">
-        <v>15.76020535693351</v>
+        <v>15.76020630188206</v>
       </c>
       <c r="E50">
-        <v>15.90573692321777</v>
+        <v>15.90573787689209</v>
       </c>
       <c r="F50">
         <v>960900</v>
@@ -2254,16 +2254,16 @@
         <v>44313</v>
       </c>
       <c r="B51">
-        <v>15.86293721952161</v>
+        <v>15.86293531422927</v>
       </c>
       <c r="C51">
-        <v>16.20536401938413</v>
+        <v>16.20536207296301</v>
       </c>
       <c r="D51">
-        <v>15.58899414681182</v>
+        <v>15.58899227442269</v>
       </c>
       <c r="E51">
-        <v>15.8800573348999</v>
+        <v>15.88005542755127</v>
       </c>
       <c r="F51">
         <v>700600</v>
@@ -2280,16 +2280,16 @@
         <v>44314</v>
       </c>
       <c r="B52">
-        <v>15.88005464719367</v>
+        <v>15.88005369812401</v>
       </c>
       <c r="C52">
-        <v>16.41081732176359</v>
+        <v>16.41081634097296</v>
       </c>
       <c r="D52">
-        <v>15.66603772939958</v>
+        <v>15.66603679312061</v>
       </c>
       <c r="E52">
-        <v>15.9571008682251</v>
+        <v>15.95709991455078</v>
       </c>
       <c r="F52">
         <v>672200</v>
@@ -2306,16 +2306,16 @@
         <v>44315</v>
       </c>
       <c r="B53">
-        <v>15.99990380970944</v>
+        <v>15.99990746782615</v>
       </c>
       <c r="C53">
-        <v>17.12991277399747</v>
+        <v>17.12991669047228</v>
       </c>
       <c r="D53">
-        <v>15.80300702189248</v>
+        <v>15.80301063499196</v>
       </c>
       <c r="E53">
-        <v>16.68475723266602</v>
+        <v>16.68476104736328</v>
       </c>
       <c r="F53">
         <v>1546600</v>
@@ -2332,16 +2332,16 @@
         <v>44316</v>
       </c>
       <c r="B54">
-        <v>16.6933196580637</v>
+        <v>16.69332153556493</v>
       </c>
       <c r="C54">
-        <v>17.31824866877094</v>
+        <v>17.31825061655807</v>
       </c>
       <c r="D54">
-        <v>16.55634896072566</v>
+        <v>16.55635082282177</v>
       </c>
       <c r="E54">
-        <v>16.95870018005371</v>
+        <v>16.95870208740234</v>
       </c>
       <c r="F54">
         <v>1011000</v>
@@ -2358,16 +2358,16 @@
         <v>44319</v>
       </c>
       <c r="B55">
-        <v>16.98438092645105</v>
+        <v>16.98438465287136</v>
       </c>
       <c r="C55">
-        <v>17.67779520941379</v>
+        <v>17.67779908797111</v>
       </c>
       <c r="D55">
-        <v>16.88165209835838</v>
+        <v>16.88165580223969</v>
       </c>
       <c r="E55">
-        <v>17.38673210144043</v>
+        <v>17.3867359161377</v>
       </c>
       <c r="F55">
         <v>655600</v>
@@ -2384,16 +2384,16 @@
         <v>44320</v>
       </c>
       <c r="B56">
-        <v>17.39529831975588</v>
+        <v>17.39529642915472</v>
       </c>
       <c r="C56">
-        <v>17.84045399028046</v>
+        <v>17.84045205129773</v>
       </c>
       <c r="D56">
-        <v>17.01862801140279</v>
+        <v>17.0186261617399</v>
       </c>
       <c r="E56">
-        <v>17.54939079284668</v>
+        <v>17.54938888549805</v>
       </c>
       <c r="F56">
         <v>724700</v>
@@ -2410,16 +2410,16 @@
         <v>44321</v>
       </c>
       <c r="B57">
-        <v>17.62643268709931</v>
+        <v>17.62643457066324</v>
       </c>
       <c r="C57">
-        <v>18.40545410219455</v>
+        <v>18.40545606900485</v>
       </c>
       <c r="D57">
-        <v>17.54938646953434</v>
+        <v>17.54938834486509</v>
       </c>
       <c r="E57">
-        <v>17.8490104675293</v>
+        <v>17.84901237487793</v>
       </c>
       <c r="F57">
         <v>434400</v>
@@ -2436,16 +2436,16 @@
         <v>44322</v>
       </c>
       <c r="B58">
-        <v>17.92606069019756</v>
+        <v>17.92605877185548</v>
       </c>
       <c r="C58">
-        <v>18.38833646605124</v>
+        <v>18.38833449823912</v>
       </c>
       <c r="D58">
-        <v>17.6178757510819</v>
+        <v>17.61787386571998</v>
       </c>
       <c r="E58">
-        <v>17.82333183288574</v>
+        <v>17.82332992553711</v>
       </c>
       <c r="F58">
         <v>445900</v>
@@ -2540,16 +2540,16 @@
         <v>44328</v>
       </c>
       <c r="B62">
-        <v>17.69491900745733</v>
+        <v>17.694921057634</v>
       </c>
       <c r="C62">
-        <v>17.91749680015221</v>
+        <v>17.91749887611729</v>
       </c>
       <c r="D62">
-        <v>16.38513486949808</v>
+        <v>16.38513676791995</v>
       </c>
       <c r="E62">
-        <v>16.46218109130859</v>
+        <v>16.46218299865723</v>
       </c>
       <c r="F62">
         <v>1679000</v>
@@ -2566,16 +2566,16 @@
         <v>44329</v>
       </c>
       <c r="B63">
-        <v>16.71900409636465</v>
+        <v>16.71900014195702</v>
       </c>
       <c r="C63">
-        <v>16.77892857887174</v>
+        <v>16.77892461029067</v>
       </c>
       <c r="D63">
-        <v>15.61467589192359</v>
+        <v>15.61467219871357</v>
       </c>
       <c r="E63">
-        <v>16.12831687927246</v>
+        <v>16.1283130645752</v>
       </c>
       <c r="F63">
         <v>1210300</v>
@@ -2618,16 +2618,16 @@
         <v>44333</v>
       </c>
       <c r="B65">
-        <v>16.5649108730859</v>
+        <v>16.5649089784659</v>
       </c>
       <c r="C65">
-        <v>17.20696166946272</v>
+        <v>17.20695970140784</v>
       </c>
       <c r="D65">
-        <v>16.5649108730859</v>
+        <v>16.5649089784659</v>
       </c>
       <c r="E65">
-        <v>16.67619895935059</v>
+        <v>16.67619705200195</v>
       </c>
       <c r="F65">
         <v>2348200</v>
@@ -2644,16 +2644,16 @@
         <v>44334</v>
       </c>
       <c r="B66">
-        <v>16.84741235310037</v>
+        <v>16.84741422338548</v>
       </c>
       <c r="C66">
-        <v>17.47234137316728</v>
+        <v>17.47234331282776</v>
       </c>
       <c r="D66">
-        <v>16.73612263933422</v>
+        <v>16.7361244972647</v>
       </c>
       <c r="E66">
-        <v>17.18127822875977</v>
+        <v>17.1812801361084</v>
       </c>
       <c r="F66">
         <v>2215800</v>
@@ -2670,16 +2670,16 @@
         <v>44335</v>
       </c>
       <c r="B67">
-        <v>16.99294357606494</v>
+        <v>16.99294543290026</v>
       </c>
       <c r="C67">
-        <v>17.75484327986275</v>
+        <v>17.75484521995158</v>
       </c>
       <c r="D67">
-        <v>16.82172938893713</v>
+        <v>16.82173122706371</v>
       </c>
       <c r="E67">
-        <v>17.45521926879883</v>
+        <v>17.45522117614746</v>
       </c>
       <c r="F67">
         <v>2252100</v>
@@ -2696,16 +2696,16 @@
         <v>44336</v>
       </c>
       <c r="B68">
-        <v>17.45521974867227</v>
+        <v>17.45522153429377</v>
       </c>
       <c r="C68">
-        <v>18.79068652621663</v>
+        <v>18.79068844845274</v>
       </c>
       <c r="D68">
-        <v>17.45521974867227</v>
+        <v>17.45522153429377</v>
       </c>
       <c r="E68">
-        <v>18.64515495300293</v>
+        <v>18.64515686035156</v>
       </c>
       <c r="F68">
         <v>1133900</v>
@@ -2774,16 +2774,16 @@
         <v>44341</v>
       </c>
       <c r="B71">
-        <v>20.01486230907362</v>
+        <v>20.01486042270261</v>
       </c>
       <c r="C71">
-        <v>20.5113815147599</v>
+        <v>20.5113795815927</v>
       </c>
       <c r="D71">
-        <v>19.55258659548549</v>
+        <v>19.55258475268328</v>
       </c>
       <c r="E71">
-        <v>20.23744010925293</v>
+        <v>20.2374382019043</v>
       </c>
       <c r="F71">
         <v>589500</v>
@@ -2826,16 +2826,16 @@
         <v>44343</v>
       </c>
       <c r="B73">
-        <v>19.59538815700216</v>
+        <v>19.59539001484085</v>
       </c>
       <c r="C73">
-        <v>20.24599977261823</v>
+        <v>20.2460016921414</v>
       </c>
       <c r="D73">
-        <v>19.15879345575377</v>
+        <v>19.15879527219891</v>
       </c>
       <c r="E73">
-        <v>20.11758995056152</v>
+        <v>20.11759185791016</v>
       </c>
       <c r="F73">
         <v>1842600</v>
@@ -2878,16 +2878,16 @@
         <v>44347</v>
       </c>
       <c r="B75">
-        <v>19.94637846107749</v>
+        <v>19.94637655209035</v>
       </c>
       <c r="C75">
-        <v>20.40865584232754</v>
+        <v>20.40865388909772</v>
       </c>
       <c r="D75">
-        <v>19.47554183897734</v>
+        <v>19.47553997505208</v>
       </c>
       <c r="E75">
-        <v>19.92925834655762</v>
+        <v>19.92925643920898</v>
       </c>
       <c r="F75">
         <v>376800</v>
@@ -2904,16 +2904,16 @@
         <v>44348</v>
       </c>
       <c r="B76">
-        <v>20.0662275189793</v>
+        <v>20.06622553986232</v>
       </c>
       <c r="C76">
-        <v>20.14327374327215</v>
+        <v>20.14327175655615</v>
       </c>
       <c r="D76">
-        <v>19.25296254380794</v>
+        <v>19.25296064490268</v>
       </c>
       <c r="E76">
-        <v>19.33856964111328</v>
+        <v>19.33856773376465</v>
       </c>
       <c r="F76">
         <v>760500</v>
@@ -2956,16 +2956,16 @@
         <v>44351</v>
       </c>
       <c r="B78">
-        <v>19.08174795545965</v>
+        <v>19.08174995145985</v>
       </c>
       <c r="C78">
-        <v>19.09030719474354</v>
+        <v>19.09030919163906</v>
       </c>
       <c r="D78">
-        <v>18.11439063443977</v>
+        <v>18.11439252925189</v>
       </c>
       <c r="E78">
-        <v>18.23423957824707</v>
+        <v>18.2342414855957</v>
       </c>
       <c r="F78">
         <v>3506800</v>
@@ -3008,16 +3008,16 @@
         <v>44355</v>
       </c>
       <c r="B80">
-        <v>18.07158921888781</v>
+        <v>18.07159117345723</v>
       </c>
       <c r="C80">
-        <v>18.23424090220201</v>
+        <v>18.23424287436336</v>
       </c>
       <c r="D80">
-        <v>17.46378031797733</v>
+        <v>17.46378220680795</v>
       </c>
       <c r="E80">
-        <v>17.63499450683594</v>
+        <v>17.63499641418457</v>
       </c>
       <c r="F80">
         <v>484200</v>
@@ -3034,16 +3034,16 @@
         <v>44356</v>
       </c>
       <c r="B81">
-        <v>17.63499407046038</v>
+        <v>17.63499756302772</v>
       </c>
       <c r="C81">
-        <v>19.28720491062995</v>
+        <v>19.2872087304136</v>
       </c>
       <c r="D81">
-        <v>17.60931145292125</v>
+        <v>17.60931494040221</v>
       </c>
       <c r="E81">
-        <v>19.26152229309082</v>
+        <v>19.26152610778809</v>
       </c>
       <c r="F81">
         <v>1658500</v>
@@ -3060,16 +3060,16 @@
         <v>44357</v>
       </c>
       <c r="B82">
-        <v>19.4241760542212</v>
+        <v>19.42417804583383</v>
       </c>
       <c r="C82">
-        <v>19.68955657698237</v>
+        <v>19.68955859580517</v>
       </c>
       <c r="D82">
-        <v>18.58522848956347</v>
+        <v>18.58523039515656</v>
       </c>
       <c r="E82">
-        <v>18.60235023498535</v>
+        <v>18.60235214233398</v>
       </c>
       <c r="F82">
         <v>1132600</v>
@@ -3086,16 +3086,16 @@
         <v>44358</v>
       </c>
       <c r="B83">
-        <v>18.53386717426412</v>
+        <v>18.53386331680522</v>
       </c>
       <c r="C83">
-        <v>18.86773471993132</v>
+        <v>18.86773079298447</v>
       </c>
       <c r="D83">
-        <v>18.1743186401131</v>
+        <v>18.17431485748714</v>
       </c>
       <c r="E83">
-        <v>18.32841110229492</v>
+        <v>18.32840728759766</v>
       </c>
       <c r="F83">
         <v>375500</v>
@@ -3164,16 +3164,16 @@
         <v>44363</v>
       </c>
       <c r="B86">
-        <v>18.02022495883958</v>
+        <v>18.02022299840559</v>
       </c>
       <c r="C86">
-        <v>18.31984898916543</v>
+        <v>18.31984699613511</v>
       </c>
       <c r="D86">
-        <v>17.07855176755777</v>
+        <v>17.07854990956912</v>
       </c>
       <c r="E86">
-        <v>17.53226661682129</v>
+        <v>17.53226470947266</v>
       </c>
       <c r="F86">
         <v>715000</v>
@@ -3268,16 +3268,16 @@
         <v>44369</v>
       </c>
       <c r="B90">
-        <v>18.14863507111561</v>
+        <v>18.14863694748655</v>
       </c>
       <c r="C90">
-        <v>18.61091075911143</v>
+        <v>18.61091268327664</v>
       </c>
       <c r="D90">
-        <v>18.14863507111561</v>
+        <v>18.14863694748655</v>
       </c>
       <c r="E90">
-        <v>18.44825744628906</v>
+        <v>18.4482593536377</v>
       </c>
       <c r="F90">
         <v>715000</v>
@@ -3294,16 +3294,16 @@
         <v>44370</v>
       </c>
       <c r="B91">
-        <v>18.44825886985724</v>
+        <v>18.44825702830876</v>
       </c>
       <c r="C91">
-        <v>19.33857008998674</v>
+        <v>19.3385681595653</v>
       </c>
       <c r="D91">
-        <v>18.44825886985724</v>
+        <v>18.44825702830876</v>
       </c>
       <c r="E91">
-        <v>19.10743141174316</v>
+        <v>19.10742950439453</v>
       </c>
       <c r="F91">
         <v>780500</v>
@@ -3346,16 +3346,16 @@
         <v>44372</v>
       </c>
       <c r="B93">
-        <v>19.00470379564287</v>
+        <v>19.00470184614275</v>
       </c>
       <c r="C93">
-        <v>19.04750652797116</v>
+        <v>19.04750457408034</v>
       </c>
       <c r="D93">
-        <v>18.23424155117714</v>
+        <v>18.23423968071095</v>
       </c>
       <c r="E93">
-        <v>18.59379005432129</v>
+        <v>18.59378814697266</v>
       </c>
       <c r="F93">
         <v>609300</v>
@@ -3372,16 +3372,16 @@
         <v>44375</v>
       </c>
       <c r="B94">
-        <v>18.58522805993562</v>
+        <v>18.58523174069447</v>
       </c>
       <c r="C94">
-        <v>19.36425113042787</v>
+        <v>19.36425496547033</v>
       </c>
       <c r="D94">
-        <v>18.58522805993562</v>
+        <v>18.58523174069447</v>
       </c>
       <c r="E94">
-        <v>19.26152229309082</v>
+        <v>19.26152610778809</v>
       </c>
       <c r="F94">
         <v>759200</v>
@@ -3398,16 +3398,16 @@
         <v>44376</v>
       </c>
       <c r="B95">
-        <v>19.26152399221722</v>
+        <v>19.26152212876334</v>
       </c>
       <c r="C95">
-        <v>19.86933129888488</v>
+        <v>19.86932937662875</v>
       </c>
       <c r="D95">
-        <v>18.9276580988544</v>
+        <v>18.92765626770034</v>
       </c>
       <c r="E95">
-        <v>19.71524047851562</v>
+        <v>19.71523857116699</v>
       </c>
       <c r="F95">
         <v>1111900</v>
@@ -3424,16 +3424,16 @@
         <v>44377</v>
       </c>
       <c r="B96">
-        <v>19.67243616661903</v>
+        <v>19.6724342974988</v>
       </c>
       <c r="C96">
-        <v>20.33160871472035</v>
+        <v>20.33160678297073</v>
       </c>
       <c r="D96">
-        <v>19.44129748619602</v>
+        <v>19.44129563903678</v>
       </c>
       <c r="E96">
-        <v>20.07478904724121</v>
+        <v>20.07478713989258</v>
       </c>
       <c r="F96">
         <v>1149300</v>
@@ -3476,16 +3476,16 @@
         <v>44379</v>
       </c>
       <c r="B98">
-        <v>20.14327339951093</v>
+        <v>20.14327521651146</v>
       </c>
       <c r="C98">
-        <v>21.3160852242745</v>
+        <v>21.31608714706716</v>
       </c>
       <c r="D98">
-        <v>19.98062008068855</v>
+        <v>19.98062188301713</v>
       </c>
       <c r="E98">
-        <v>21.14487266540527</v>
+        <v>21.14487457275391</v>
       </c>
       <c r="F98">
         <v>1074100</v>
@@ -3502,16 +3502,16 @@
         <v>44382</v>
       </c>
       <c r="B99">
-        <v>21.10206793710342</v>
+        <v>21.1020698065326</v>
       </c>
       <c r="C99">
-        <v>21.7013159648587</v>
+        <v>21.70131788737517</v>
       </c>
       <c r="D99">
-        <v>20.92229450846855</v>
+        <v>20.92229636197163</v>
       </c>
       <c r="E99">
-        <v>21.53010177612305</v>
+        <v>21.53010368347168</v>
       </c>
       <c r="F99">
         <v>710300</v>
@@ -3528,16 +3528,16 @@
         <v>44383</v>
       </c>
       <c r="B100">
-        <v>21.64995415004311</v>
+        <v>21.64995211987274</v>
       </c>
       <c r="C100">
-        <v>21.75268136551602</v>
+        <v>21.75267932571265</v>
       </c>
       <c r="D100">
-        <v>20.34016990661621</v>
+        <v>20.34016799926758</v>
       </c>
       <c r="E100">
-        <v>20.34016990661621</v>
+        <v>20.34016799926758</v>
       </c>
       <c r="F100">
         <v>831900</v>
@@ -3554,16 +3554,16 @@
         <v>44384</v>
       </c>
       <c r="B101">
-        <v>20.43433633795931</v>
+        <v>20.4343383226329</v>
       </c>
       <c r="C101">
-        <v>20.53706354567263</v>
+        <v>20.53706554032355</v>
       </c>
       <c r="D101">
-        <v>19.41561533668826</v>
+        <v>19.41561722241914</v>
       </c>
       <c r="E101">
-        <v>19.63819313049316</v>
+        <v>19.6381950378418</v>
       </c>
       <c r="F101">
         <v>1267200</v>
@@ -3632,16 +3632,16 @@
         <v>44390</v>
       </c>
       <c r="B104">
-        <v>19.32144922534383</v>
+        <v>19.32144549332315</v>
       </c>
       <c r="C104">
-        <v>19.86933207330768</v>
+        <v>19.86932823546107</v>
       </c>
       <c r="D104">
-        <v>19.11599315735739</v>
+        <v>19.11598946502143</v>
       </c>
       <c r="E104">
-        <v>19.74948310852051</v>
+        <v>19.74947929382324</v>
       </c>
       <c r="F104">
         <v>580500</v>
@@ -3684,16 +3684,16 @@
         <v>44392</v>
       </c>
       <c r="B106">
-        <v>19.94637576593959</v>
+        <v>19.94637971627041</v>
       </c>
       <c r="C106">
-        <v>19.98918012850481</v>
+        <v>19.98918408731293</v>
       </c>
       <c r="D106">
-        <v>19.26152229309082</v>
+        <v>19.26152610778809</v>
       </c>
       <c r="E106">
-        <v>19.26152229309082</v>
+        <v>19.26152610778809</v>
       </c>
       <c r="F106">
         <v>394600</v>
@@ -3736,16 +3736,16 @@
         <v>44396</v>
       </c>
       <c r="B108">
-        <v>18.80780698160186</v>
+        <v>18.8078050522994</v>
       </c>
       <c r="C108">
-        <v>18.80780698160186</v>
+        <v>18.8078050522994</v>
       </c>
       <c r="D108">
-        <v>17.95173927247956</v>
+        <v>17.95173743099242</v>
       </c>
       <c r="E108">
-        <v>18.59379005432129</v>
+        <v>18.59378814697266</v>
       </c>
       <c r="F108">
         <v>546900</v>
@@ -3762,16 +3762,16 @@
         <v>44397</v>
       </c>
       <c r="B109">
-        <v>18.4482582984005</v>
+        <v>18.448260176982</v>
       </c>
       <c r="C109">
-        <v>19.03894546911919</v>
+        <v>19.03894740785021</v>
       </c>
       <c r="D109">
-        <v>18.4482582984005</v>
+        <v>18.448260176982</v>
       </c>
       <c r="E109">
-        <v>18.73076057434082</v>
+        <v>18.73076248168945</v>
       </c>
       <c r="F109">
         <v>268800</v>
@@ -3814,16 +3814,16 @@
         <v>44399</v>
       </c>
       <c r="B111">
-        <v>18.09727039323418</v>
+        <v>18.09727240227004</v>
       </c>
       <c r="C111">
-        <v>18.22568185262891</v>
+        <v>18.22568387592012</v>
       </c>
       <c r="D111">
-        <v>17.18127822875977</v>
+        <v>17.1812801361084</v>
       </c>
       <c r="E111">
-        <v>17.18127822875977</v>
+        <v>17.1812801361084</v>
       </c>
       <c r="F111">
         <v>2065900</v>
@@ -3866,16 +3866,16 @@
         <v>44403</v>
       </c>
       <c r="B113">
-        <v>17.1213550567627</v>
+        <v>17.12135314941406</v>
       </c>
       <c r="C113">
-        <v>17.2754475135247</v>
+        <v>17.27544558900991</v>
       </c>
       <c r="D113">
-        <v>16.36801615270578</v>
+        <v>16.36801432928041</v>
       </c>
       <c r="E113">
-        <v>17.1213550567627</v>
+        <v>17.12135314941406</v>
       </c>
       <c r="F113">
         <v>1728800</v>
@@ -3892,16 +3892,16 @@
         <v>44404</v>
       </c>
       <c r="B114">
-        <v>17.11279379260989</v>
+        <v>17.11279182725424</v>
       </c>
       <c r="C114">
-        <v>17.17271827268933</v>
+        <v>17.17271630045153</v>
       </c>
       <c r="D114">
-        <v>16.19680157923638</v>
+        <v>16.19679971907983</v>
       </c>
       <c r="E114">
-        <v>16.60771369934082</v>
+        <v>16.60771179199219</v>
       </c>
       <c r="F114">
         <v>1296300</v>
@@ -3944,16 +3944,16 @@
         <v>44406</v>
       </c>
       <c r="B116">
-        <v>16.26528583776757</v>
+        <v>16.26528772721613</v>
       </c>
       <c r="C116">
-        <v>16.54778810542654</v>
+        <v>16.54779002769184</v>
       </c>
       <c r="D116">
-        <v>15.97422269741354</v>
+        <v>15.9742245530509</v>
       </c>
       <c r="E116">
-        <v>16.41937828063965</v>
+        <v>16.41938018798828</v>
       </c>
       <c r="F116">
         <v>544800</v>
@@ -3996,16 +3996,16 @@
         <v>44410</v>
       </c>
       <c r="B118">
-        <v>16.43649967656529</v>
+        <v>16.43650155457017</v>
       </c>
       <c r="C118">
-        <v>16.84741176027455</v>
+        <v>16.84741368522951</v>
       </c>
       <c r="D118">
-        <v>16.1283147973736</v>
+        <v>16.12831664016584</v>
       </c>
       <c r="E118">
-        <v>16.69331932067871</v>
+        <v>16.69332122802734</v>
       </c>
       <c r="F118">
         <v>857600</v>
@@ -4048,16 +4048,16 @@
         <v>44412</v>
       </c>
       <c r="B120">
-        <v>17.14703767716292</v>
+        <v>17.14703576695319</v>
       </c>
       <c r="C120">
-        <v>17.40385734988649</v>
+        <v>17.40385541106662</v>
       </c>
       <c r="D120">
-        <v>16.88165549815294</v>
+        <v>16.88165361750725</v>
       </c>
       <c r="E120">
-        <v>17.1213550567627</v>
+        <v>17.12135314941406</v>
       </c>
       <c r="F120">
         <v>1976900</v>
@@ -4074,16 +4074,16 @@
         <v>44413</v>
       </c>
       <c r="B121">
-        <v>17.29256607425692</v>
+        <v>17.29257002791975</v>
       </c>
       <c r="C121">
-        <v>17.70347812803087</v>
+        <v>17.70348217564203</v>
       </c>
       <c r="D121">
-        <v>16.4964229495578</v>
+        <v>16.4964267211955</v>
       </c>
       <c r="E121">
-        <v>16.68475723266602</v>
+        <v>16.68476104736328</v>
       </c>
       <c r="F121">
         <v>942000</v>
@@ -4100,16 +4100,16 @@
         <v>44414</v>
       </c>
       <c r="B122">
-        <v>16.64195703185204</v>
+        <v>16.64195522136086</v>
       </c>
       <c r="C122">
-        <v>17.54082749000998</v>
+        <v>17.54082558173</v>
       </c>
       <c r="D122">
-        <v>16.63339615866334</v>
+        <v>16.63339434910351</v>
       </c>
       <c r="E122">
-        <v>17.53226661682129</v>
+        <v>17.53226470947266</v>
       </c>
       <c r="F122">
         <v>462200</v>
@@ -4126,16 +4126,16 @@
         <v>44417</v>
       </c>
       <c r="B123">
-        <v>17.18127955586358</v>
+        <v>17.18127771457042</v>
       </c>
       <c r="C123">
-        <v>17.96886195459667</v>
+        <v>17.96886002889943</v>
       </c>
       <c r="D123">
-        <v>17.18127955586358</v>
+        <v>17.18127771457042</v>
       </c>
       <c r="E123">
-        <v>17.79764938354492</v>
+        <v>17.79764747619629</v>
       </c>
       <c r="F123">
         <v>626000</v>
@@ -4152,16 +4152,16 @@
         <v>44418</v>
       </c>
       <c r="B124">
-        <v>17.80620713100108</v>
+        <v>17.80620900678599</v>
       </c>
       <c r="C124">
-        <v>18.31984806672255</v>
+        <v>18.31984999661668</v>
       </c>
       <c r="D124">
-        <v>17.69491905079087</v>
+        <v>17.6949209148522</v>
       </c>
       <c r="E124">
-        <v>18.10583114624023</v>
+        <v>18.10583305358887</v>
       </c>
       <c r="F124">
         <v>702000</v>
@@ -4178,16 +4178,16 @@
         <v>44419</v>
       </c>
       <c r="B125">
-        <v>17.95173676127601</v>
+        <v>17.95173861299355</v>
       </c>
       <c r="C125">
-        <v>19.0475038634847</v>
+        <v>19.04750582823037</v>
       </c>
       <c r="D125">
-        <v>17.80620520577032</v>
+        <v>17.80620704247631</v>
       </c>
       <c r="E125">
-        <v>18.49106025695801</v>
+        <v>18.49106216430664</v>
       </c>
       <c r="F125">
         <v>1272300</v>
@@ -4308,16 +4308,16 @@
         <v>44426</v>
       </c>
       <c r="B130">
-        <v>17.06143079922634</v>
+        <v>17.06142884681442</v>
       </c>
       <c r="C130">
-        <v>17.13847702861849</v>
+        <v>17.13847506738984</v>
       </c>
       <c r="D130">
-        <v>16.37657560827612</v>
+        <v>16.37657373423508</v>
       </c>
       <c r="E130">
-        <v>16.66763877868652</v>
+        <v>16.66763687133789</v>
       </c>
       <c r="F130">
         <v>1853100</v>
@@ -4334,16 +4334,16 @@
         <v>44427</v>
       </c>
       <c r="B131">
-        <v>16.00846745513806</v>
+        <v>16.00846568592075</v>
       </c>
       <c r="C131">
-        <v>17.36961529780622</v>
+        <v>17.36961337815811</v>
       </c>
       <c r="D131">
-        <v>15.99990658176548</v>
+        <v>15.99990481349429</v>
       </c>
       <c r="E131">
-        <v>17.25832557678223</v>
+        <v>17.25832366943359</v>
       </c>
       <c r="F131">
         <v>1085000</v>
@@ -4386,16 +4386,16 @@
         <v>44431</v>
       </c>
       <c r="B133">
-        <v>18.19144003500857</v>
+        <v>18.191436521254</v>
       </c>
       <c r="C133">
-        <v>19.80940759091409</v>
+        <v>19.80940376464216</v>
       </c>
       <c r="D133">
-        <v>18.05446932301761</v>
+        <v>18.05446583571952</v>
       </c>
       <c r="E133">
-        <v>19.74948310852051</v>
+        <v>19.74947929382324</v>
       </c>
       <c r="F133">
         <v>1332700</v>
@@ -4412,16 +4412,16 @@
         <v>44432</v>
       </c>
       <c r="B134">
-        <v>20.21176070632449</v>
+        <v>20.21175872948072</v>
       </c>
       <c r="C134">
-        <v>20.38297328176882</v>
+        <v>20.38297128817933</v>
       </c>
       <c r="D134">
-        <v>19.10743249194288</v>
+        <v>19.10743062310971</v>
       </c>
       <c r="E134">
-        <v>19.50122451782227</v>
+        <v>19.50122261047363</v>
       </c>
       <c r="F134">
         <v>1060800</v>
@@ -4438,16 +4438,16 @@
         <v>44433</v>
       </c>
       <c r="B135">
-        <v>19.38137165290567</v>
+        <v>19.38137347264325</v>
       </c>
       <c r="C135">
-        <v>20.49426061086727</v>
+        <v>20.49426253509517</v>
       </c>
       <c r="D135">
-        <v>19.38137165290567</v>
+        <v>19.38137347264325</v>
       </c>
       <c r="E135">
-        <v>20.31448554992676</v>
+        <v>20.31448745727539</v>
       </c>
       <c r="F135">
         <v>751400</v>
@@ -4464,16 +4464,16 @@
         <v>44434</v>
       </c>
       <c r="B136">
-        <v>20.37440985462652</v>
+        <v>20.37441373619106</v>
       </c>
       <c r="C136">
-        <v>20.61410938959159</v>
+        <v>20.6141133168217</v>
       </c>
       <c r="D136">
-        <v>19.80084445149041</v>
+        <v>19.80084822378399</v>
       </c>
       <c r="E136">
-        <v>20.02342224121094</v>
+        <v>20.0234260559082</v>
       </c>
       <c r="F136">
         <v>711800</v>
@@ -4490,16 +4490,16 @@
         <v>44435</v>
       </c>
       <c r="B137">
-        <v>19.97205838347872</v>
+        <v>19.97206023758054</v>
       </c>
       <c r="C137">
-        <v>20.87092877069517</v>
+        <v>20.87093070824343</v>
       </c>
       <c r="D137">
-        <v>19.97205838347872</v>
+        <v>19.97206023758054</v>
       </c>
       <c r="E137">
-        <v>20.54562377929688</v>
+        <v>20.54562568664551</v>
       </c>
       <c r="F137">
         <v>595500</v>
@@ -4594,16 +4594,16 @@
         <v>44441</v>
       </c>
       <c r="B141">
-        <v>19.65531506670179</v>
+        <v>19.65531308513066</v>
       </c>
       <c r="C141">
-        <v>19.65531506670179</v>
+        <v>19.65531308513066</v>
       </c>
       <c r="D141">
-        <v>18.91909790039062</v>
+        <v>18.91909599304199</v>
       </c>
       <c r="E141">
-        <v>18.91909790039062</v>
+        <v>18.91909599304199</v>
       </c>
       <c r="F141">
         <v>601600</v>
@@ -4646,16 +4646,16 @@
         <v>44445</v>
       </c>
       <c r="B143">
-        <v>19.4241777010681</v>
+        <v>19.42417577504483</v>
       </c>
       <c r="C143">
-        <v>19.70667999320264</v>
+        <v>19.70667803916758</v>
       </c>
       <c r="D143">
-        <v>19.05606830738558</v>
+        <v>19.05606641786256</v>
       </c>
       <c r="E143">
-        <v>19.23584175109863</v>
+        <v>19.23583984375</v>
       </c>
       <c r="F143">
         <v>419100</v>
@@ -4672,16 +4672,16 @@
         <v>44447</v>
       </c>
       <c r="B144">
-        <v>19.27008143152462</v>
+        <v>19.27008565943395</v>
       </c>
       <c r="C144">
-        <v>19.27008143152462</v>
+        <v>19.27008565943395</v>
       </c>
       <c r="D144">
-        <v>17.38673210144043</v>
+        <v>17.3867359161377</v>
       </c>
       <c r="E144">
-        <v>17.38673210144043</v>
+        <v>17.3867359161377</v>
       </c>
       <c r="F144">
         <v>704500</v>
@@ -4698,16 +4698,16 @@
         <v>44448</v>
       </c>
       <c r="B145">
-        <v>17.14703576695319</v>
+        <v>17.14703772614265</v>
       </c>
       <c r="C145">
-        <v>17.4209771560927</v>
+        <v>17.42097914658221</v>
       </c>
       <c r="D145">
-        <v>16.26528549194336</v>
+        <v>16.26528735038562</v>
       </c>
       <c r="E145">
-        <v>16.69331932067871</v>
+        <v>16.69332122802734</v>
       </c>
       <c r="F145">
         <v>1975800</v>
@@ -4776,16 +4776,16 @@
         <v>44453</v>
       </c>
       <c r="B148">
-        <v>17.38673332125487</v>
+        <v>17.38673715862473</v>
       </c>
       <c r="C148">
-        <v>17.73772092323208</v>
+        <v>17.73772483806728</v>
       </c>
       <c r="D148">
-        <v>16.90733589976737</v>
+        <v>16.90733963133096</v>
       </c>
       <c r="E148">
-        <v>17.28400611877441</v>
+        <v>17.28400993347168</v>
       </c>
       <c r="F148">
         <v>766700</v>
@@ -4828,16 +4828,16 @@
         <v>44455</v>
       </c>
       <c r="B150">
-        <v>16.76180466796359</v>
+        <v>16.76180658313724</v>
       </c>
       <c r="C150">
-        <v>16.94157972509856</v>
+        <v>16.94158166081299</v>
       </c>
       <c r="D150">
-        <v>16.46218066128495</v>
+        <v>16.46218254222409</v>
       </c>
       <c r="E150">
-        <v>16.69331932067871</v>
+        <v>16.69332122802734</v>
       </c>
       <c r="F150">
         <v>566900</v>
@@ -4854,16 +4854,16 @@
         <v>44456</v>
       </c>
       <c r="B151">
-        <v>16.68476103956833</v>
+        <v>16.68475711409595</v>
       </c>
       <c r="C151">
-        <v>16.69332191341101</v>
+        <v>16.69331798592449</v>
       </c>
       <c r="D151">
-        <v>16.11119555466654</v>
+        <v>16.1111917641386</v>
       </c>
       <c r="E151">
-        <v>16.21392440795898</v>
+        <v>16.21392059326172</v>
       </c>
       <c r="F151">
         <v>698800</v>
@@ -4880,16 +4880,16 @@
         <v>44459</v>
       </c>
       <c r="B152">
-        <v>15.71740236289159</v>
+        <v>15.71740333889274</v>
       </c>
       <c r="C152">
-        <v>15.91429752783898</v>
+        <v>15.91429851606669</v>
       </c>
       <c r="D152">
-        <v>14.84421297988218</v>
+        <v>14.84421390166102</v>
       </c>
       <c r="E152">
-        <v>15.35785388946533</v>
+        <v>15.35785484313965</v>
       </c>
       <c r="F152">
         <v>1123400</v>
@@ -4906,16 +4906,16 @@
         <v>44460</v>
       </c>
       <c r="B153">
-        <v>15.45202047708811</v>
+        <v>15.45202238127182</v>
       </c>
       <c r="C153">
-        <v>15.92285866573374</v>
+        <v>15.92286062793979</v>
       </c>
       <c r="D153">
-        <v>15.17807908949329</v>
+        <v>15.17808095991865</v>
       </c>
       <c r="E153">
-        <v>15.47770309448242</v>
+        <v>15.47770500183105</v>
       </c>
       <c r="F153">
         <v>753200</v>
@@ -4932,16 +4932,16 @@
         <v>44461</v>
       </c>
       <c r="B154">
-        <v>15.700281404776</v>
+        <v>15.70028235793059</v>
       </c>
       <c r="C154">
-        <v>16.04270815071265</v>
+        <v>16.04270912465576</v>
       </c>
       <c r="D154">
-        <v>15.49482535721401</v>
+        <v>15.49482629789549</v>
       </c>
       <c r="E154">
-        <v>15.70884227752686</v>
+        <v>15.70884323120117</v>
       </c>
       <c r="F154">
         <v>750300</v>
@@ -4984,16 +4984,16 @@
         <v>44463</v>
       </c>
       <c r="B156">
-        <v>15.76020588121247</v>
+        <v>15.76020683800504</v>
       </c>
       <c r="C156">
-        <v>15.96566192877446</v>
+        <v>15.96566289804015</v>
       </c>
       <c r="D156">
-        <v>15.4777036117123</v>
+        <v>15.47770455135432</v>
       </c>
       <c r="E156">
-        <v>15.70884227752686</v>
+        <v>15.70884323120117</v>
       </c>
       <c r="F156">
         <v>555200</v>
@@ -5036,16 +5036,16 @@
         <v>44467</v>
       </c>
       <c r="B158">
-        <v>15.11815469375862</v>
+        <v>15.11815567693954</v>
       </c>
       <c r="C158">
-        <v>15.49482492007203</v>
+        <v>15.49482592774899</v>
       </c>
       <c r="D158">
-        <v>14.56171104320758</v>
+        <v>14.56171199020123</v>
       </c>
       <c r="E158">
-        <v>14.66443824768066</v>
+        <v>14.66443920135498</v>
       </c>
       <c r="F158">
         <v>1263800</v>
@@ -5062,16 +5062,16 @@
         <v>44468</v>
       </c>
       <c r="B159">
-        <v>14.81853104657173</v>
+        <v>14.81853301065293</v>
       </c>
       <c r="C159">
-        <v>15.05823058418763</v>
+        <v>15.05823258003914</v>
       </c>
       <c r="D159">
-        <v>14.2877700006773</v>
+        <v>14.28777189441024</v>
       </c>
       <c r="E159">
-        <v>14.3904972076416</v>
+        <v>14.39049911499023</v>
       </c>
       <c r="F159">
         <v>1154200</v>
@@ -5088,16 +5088,16 @@
         <v>44469</v>
       </c>
       <c r="B160">
-        <v>14.64731859160825</v>
+        <v>14.64731957458221</v>
       </c>
       <c r="C160">
-        <v>14.66443870434057</v>
+        <v>14.66443968846346</v>
       </c>
       <c r="D160">
-        <v>14.09087329090967</v>
+        <v>14.09087423654088</v>
       </c>
       <c r="E160">
-        <v>14.21072387695312</v>
+        <v>14.21072483062744</v>
       </c>
       <c r="F160">
         <v>471700</v>
@@ -5140,16 +5140,16 @@
         <v>44473</v>
       </c>
       <c r="B162">
-        <v>14.44186209997133</v>
+        <v>14.44186309003204</v>
       </c>
       <c r="C162">
-        <v>14.67299912654562</v>
+        <v>14.67300013245191</v>
       </c>
       <c r="D162">
-        <v>13.67140071840186</v>
+        <v>13.67140165564365</v>
       </c>
       <c r="E162">
-        <v>13.91109943389893</v>
+        <v>13.91110038757324</v>
       </c>
       <c r="F162">
         <v>452300</v>
@@ -5166,16 +5166,16 @@
         <v>44474</v>
       </c>
       <c r="B163">
-        <v>14.09943471241593</v>
+        <v>14.09943569410439</v>
       </c>
       <c r="C163">
-        <v>14.10799558552503</v>
+        <v>14.10799656780955</v>
       </c>
       <c r="D163">
-        <v>13.57723369890749</v>
+        <v>13.57723464423714</v>
       </c>
       <c r="E163">
-        <v>13.69708347320557</v>
+        <v>13.69708442687988</v>
       </c>
       <c r="F163">
         <v>422500</v>
@@ -5218,16 +5218,16 @@
         <v>44476</v>
       </c>
       <c r="B165">
-        <v>13.12351725420017</v>
+        <v>13.1235182047741</v>
       </c>
       <c r="C165">
-        <v>13.40601951866164</v>
+        <v>13.40602048969802</v>
       </c>
       <c r="D165">
-        <v>12.90093946510636</v>
+        <v>12.90094039955835</v>
       </c>
       <c r="E165">
-        <v>13.16632080078125</v>
+        <v>13.16632175445557</v>
       </c>
       <c r="F165">
         <v>516000</v>
@@ -5244,16 +5244,16 @@
         <v>44477</v>
       </c>
       <c r="B166">
-        <v>13.28616983741723</v>
+        <v>13.28617078136019</v>
       </c>
       <c r="C166">
-        <v>13.85117433527472</v>
+        <v>13.85117531935957</v>
       </c>
       <c r="D166">
-        <v>13.03790944417895</v>
+        <v>13.03791037048374</v>
       </c>
       <c r="E166">
-        <v>13.42314052581787</v>
+        <v>13.42314147949219</v>
       </c>
       <c r="F166">
         <v>634000</v>
@@ -5270,16 +5270,16 @@
         <v>44480</v>
       </c>
       <c r="B167">
-        <v>13.42314149099088</v>
+        <v>13.4231424760774</v>
       </c>
       <c r="C167">
-        <v>13.73988561838515</v>
+        <v>13.73988662671662</v>
       </c>
       <c r="D167">
-        <v>12.98654677801381</v>
+        <v>12.98654773105987</v>
       </c>
       <c r="E167">
-        <v>12.99510765075684</v>
+        <v>12.99510860443115</v>
       </c>
       <c r="F167">
         <v>734100</v>
@@ -5374,16 +5374,16 @@
         <v>44487</v>
       </c>
       <c r="B171">
-        <v>12.9437433544663</v>
+        <v>12.94374430374583</v>
       </c>
       <c r="C171">
-        <v>13.39745900085773</v>
+        <v>13.39745998341225</v>
       </c>
       <c r="D171">
-        <v>12.62699840763382</v>
+        <v>12.62699933368362</v>
       </c>
       <c r="E171">
-        <v>13.0036678314209</v>
+        <v>13.00366878509521</v>
       </c>
       <c r="F171">
         <v>1814800</v>
@@ -5400,16 +5400,16 @@
         <v>44488</v>
       </c>
       <c r="B172">
-        <v>12.77252978871915</v>
+        <v>12.77253078653265</v>
       </c>
       <c r="C172">
-        <v>12.89237955724307</v>
+        <v>12.89238056441946</v>
       </c>
       <c r="D172">
-        <v>11.98494746164136</v>
+        <v>11.98494839792749</v>
       </c>
       <c r="E172">
-        <v>12.2075252532959</v>
+        <v>12.20752620697021</v>
       </c>
       <c r="F172">
         <v>1857200</v>
@@ -5426,16 +5426,16 @@
         <v>44489</v>
       </c>
       <c r="B173">
-        <v>12.17328245194759</v>
+        <v>12.17328342898281</v>
       </c>
       <c r="C173">
-        <v>12.3872993686732</v>
+        <v>12.38730036288556</v>
       </c>
       <c r="D173">
-        <v>11.67676327045695</v>
+        <v>11.67676420764123</v>
       </c>
       <c r="E173">
-        <v>11.8822193145752</v>
+        <v>11.88222026824951</v>
       </c>
       <c r="F173">
         <v>2010400</v>
@@ -5452,16 +5452,16 @@
         <v>44490</v>
       </c>
       <c r="B174">
-        <v>11.55691392943975</v>
+        <v>11.55691292124846</v>
       </c>
       <c r="C174">
-        <v>11.77093085405901</v>
+        <v>11.77092982719751</v>
       </c>
       <c r="D174">
-        <v>10.84637780501661</v>
+        <v>10.84637685881041</v>
       </c>
       <c r="E174">
-        <v>10.93198490142822</v>
+        <v>10.93198394775391</v>
       </c>
       <c r="F174">
         <v>2707100</v>
@@ -5478,16 +5478,16 @@
         <v>44491</v>
       </c>
       <c r="B175">
-        <v>11.08607630018789</v>
+        <v>11.08607723438471</v>
       </c>
       <c r="C175">
-        <v>11.65108083874303</v>
+        <v>11.65108182055141</v>
       </c>
       <c r="D175">
-        <v>10.10159879408845</v>
+        <v>10.10159964532573</v>
       </c>
       <c r="E175">
-        <v>11.31721496582031</v>
+        <v>11.31721591949463</v>
       </c>
       <c r="F175">
         <v>6205900</v>
@@ -5556,16 +5556,16 @@
         <v>44496</v>
       </c>
       <c r="B178">
-        <v>11.7709308569286</v>
+        <v>11.77093182041296</v>
       </c>
       <c r="C178">
-        <v>12.09623668039834</v>
+        <v>12.09623767050992</v>
       </c>
       <c r="D178">
-        <v>11.56547480518237</v>
+        <v>11.56547575184957</v>
       </c>
       <c r="E178">
-        <v>11.65108108520508</v>
+        <v>11.65108203887939</v>
       </c>
       <c r="F178">
         <v>930600</v>
@@ -5582,16 +5582,16 @@
         <v>44497</v>
       </c>
       <c r="B179">
-        <v>11.65108196324257</v>
+        <v>11.65108004886105</v>
       </c>
       <c r="C179">
-        <v>12.07055578768198</v>
+        <v>12.07055380437699</v>
       </c>
       <c r="D179">
-        <v>11.24873070235372</v>
+        <v>11.24872885408227</v>
       </c>
       <c r="E179">
-        <v>11.60827922821045</v>
+        <v>11.60827732086182</v>
       </c>
       <c r="F179">
         <v>1043700</v>
@@ -5608,16 +5608,16 @@
         <v>44498</v>
       </c>
       <c r="B180">
-        <v>11.68532273616497</v>
+        <v>11.68532374528547</v>
       </c>
       <c r="C180">
-        <v>11.77949069726793</v>
+        <v>11.77949171452058</v>
       </c>
       <c r="D180">
-        <v>10.94910487373937</v>
+        <v>10.9491058192816</v>
       </c>
       <c r="E180">
-        <v>11.04327201843262</v>
+        <v>11.04327297210693</v>
       </c>
       <c r="F180">
         <v>1687400</v>
@@ -5686,16 +5686,16 @@
         <v>44504</v>
       </c>
       <c r="B183">
-        <v>12.34449617601125</v>
+        <v>12.34449716252374</v>
       </c>
       <c r="C183">
-        <v>12.54995222602073</v>
+        <v>12.54995322895228</v>
       </c>
       <c r="D183">
-        <v>11.78805250313313</v>
+        <v>11.78805344517733</v>
       </c>
       <c r="E183">
-        <v>11.93358325958252</v>
+        <v>11.93358421325684</v>
       </c>
       <c r="F183">
         <v>1171000</v>
@@ -5738,16 +5738,16 @@
         <v>44508</v>
       </c>
       <c r="B185">
-        <v>11.89934055022978</v>
+        <v>11.89933959311264</v>
       </c>
       <c r="C185">
-        <v>12.37873881527773</v>
+        <v>12.37873781960046</v>
       </c>
       <c r="D185">
-        <v>11.71100624646965</v>
+        <v>11.71100530450109</v>
       </c>
       <c r="E185">
-        <v>11.85653781890869</v>
+        <v>11.85653686523438</v>
       </c>
       <c r="F185">
         <v>664800</v>
@@ -5764,16 +5764,16 @@
         <v>44509</v>
       </c>
       <c r="B186">
-        <v>11.99351024627686</v>
+        <v>11.99350833892822</v>
       </c>
       <c r="C186">
-        <v>12.25889081090066</v>
+        <v>12.2588888613481</v>
       </c>
       <c r="D186">
-        <v>11.86509958458576</v>
+        <v>11.86509769765849</v>
       </c>
       <c r="E186">
-        <v>11.99351024627686</v>
+        <v>11.99350833892822</v>
       </c>
       <c r="F186">
         <v>617000</v>
@@ -5842,16 +5842,16 @@
         <v>44512</v>
       </c>
       <c r="B189">
-        <v>13.35465671293935</v>
+        <v>13.35465764277183</v>
       </c>
       <c r="C189">
-        <v>13.78269057147702</v>
+        <v>13.78269153111182</v>
       </c>
       <c r="D189">
-        <v>13.20056426261465</v>
+        <v>13.20056518171828</v>
       </c>
       <c r="E189">
-        <v>13.69708347320557</v>
+        <v>13.69708442687988</v>
       </c>
       <c r="F189">
         <v>1346600</v>
@@ -5868,16 +5868,16 @@
         <v>44516</v>
       </c>
       <c r="B190">
-        <v>13.7826909978549</v>
+        <v>13.78269001613134</v>
       </c>
       <c r="C190">
-        <v>14.01382968049239</v>
+        <v>14.01382868230512</v>
       </c>
       <c r="D190">
-        <v>13.04647221589235</v>
+        <v>13.04647128660872</v>
       </c>
       <c r="E190">
-        <v>13.38889980316162</v>
+        <v>13.3888988494873</v>
       </c>
       <c r="F190">
         <v>1667100</v>
@@ -5894,16 +5894,16 @@
         <v>44517</v>
       </c>
       <c r="B191">
-        <v>13.4830673554454</v>
+        <v>13.48306636726312</v>
       </c>
       <c r="C191">
-        <v>13.71420604484405</v>
+        <v>13.71420503972147</v>
       </c>
       <c r="D191">
-        <v>12.52427155258291</v>
+        <v>12.52427063467136</v>
       </c>
       <c r="E191">
-        <v>13.01222991943359</v>
+        <v>13.01222896575928</v>
       </c>
       <c r="F191">
         <v>1405500</v>
@@ -5972,16 +5972,16 @@
         <v>44522</v>
       </c>
       <c r="B194">
-        <v>13.31185277681688</v>
+        <v>13.31185377209448</v>
       </c>
       <c r="C194">
-        <v>13.5087479541436</v>
+        <v>13.50874896414232</v>
       </c>
       <c r="D194">
-        <v>12.72972648487741</v>
+        <v>12.7297274366316</v>
       </c>
       <c r="E194">
-        <v>12.75540828704834</v>
+        <v>12.75540924072266</v>
       </c>
       <c r="F194">
         <v>1753900</v>
@@ -6076,16 +6076,16 @@
         <v>44526</v>
       </c>
       <c r="B198">
-        <v>12.71260534816443</v>
+        <v>12.71260438606771</v>
       </c>
       <c r="C198">
-        <v>12.8324543006133</v>
+        <v>12.83245332944635</v>
       </c>
       <c r="D198">
-        <v>12.3872995324708</v>
+        <v>12.3872985949934</v>
       </c>
       <c r="E198">
-        <v>12.60131645202637</v>
+        <v>12.60131549835205</v>
       </c>
       <c r="F198">
         <v>1115900</v>
@@ -6128,16 +6128,16 @@
         <v>44530</v>
       </c>
       <c r="B200">
-        <v>12.60131667535779</v>
+        <v>12.60131765022491</v>
       </c>
       <c r="C200">
-        <v>12.76396917788239</v>
+        <v>12.76397016533269</v>
       </c>
       <c r="D200">
-        <v>11.98494770751921</v>
+        <v>11.98494863470259</v>
       </c>
       <c r="E200">
-        <v>12.32737445831299</v>
+        <v>12.3273754119873</v>
       </c>
       <c r="F200">
         <v>1971000</v>
@@ -6154,16 +6154,16 @@
         <v>44531</v>
       </c>
       <c r="B201">
-        <v>12.64412027374581</v>
+        <v>12.64412134490707</v>
       </c>
       <c r="C201">
-        <v>12.64412027374581</v>
+        <v>12.64412134490707</v>
       </c>
       <c r="D201">
-        <v>11.17168360663957</v>
+        <v>11.17168455306166</v>
       </c>
       <c r="E201">
-        <v>11.25728988647461</v>
+        <v>11.25729084014893</v>
       </c>
       <c r="F201">
         <v>1824400</v>
@@ -6180,16 +6180,16 @@
         <v>44532</v>
       </c>
       <c r="B202">
-        <v>11.38570099309906</v>
+        <v>11.38570005076113</v>
       </c>
       <c r="C202">
-        <v>11.83085578897987</v>
+        <v>11.83085480979868</v>
       </c>
       <c r="D202">
-        <v>11.34289744323884</v>
+        <v>11.34289650444355</v>
       </c>
       <c r="E202">
-        <v>11.52267169952393</v>
+        <v>11.52267074584961</v>
       </c>
       <c r="F202">
         <v>819800</v>
@@ -6206,16 +6206,16 @@
         <v>44533</v>
       </c>
       <c r="B203">
-        <v>11.63396103251169</v>
+        <v>11.6339591209433</v>
       </c>
       <c r="C203">
-        <v>12.36161814138567</v>
+        <v>12.36161611025642</v>
       </c>
       <c r="D203">
-        <v>11.52267212532653</v>
+        <v>11.52267023204394</v>
       </c>
       <c r="E203">
-        <v>11.60827922821045</v>
+        <v>11.60827732086182</v>
       </c>
       <c r="F203">
         <v>1174100</v>
@@ -6258,16 +6258,16 @@
         <v>44537</v>
       </c>
       <c r="B205">
-        <v>11.72812814433746</v>
+        <v>11.72812718365087</v>
       </c>
       <c r="C205">
-        <v>12.12191934644676</v>
+        <v>12.12191835350354</v>
       </c>
       <c r="D205">
-        <v>11.5740365027537</v>
+        <v>11.57403555468923</v>
       </c>
       <c r="E205">
-        <v>11.64252185821533</v>
+        <v>11.64252090454102</v>
       </c>
       <c r="F205">
         <v>948000</v>
@@ -6284,16 +6284,16 @@
         <v>44538</v>
       </c>
       <c r="B206">
-        <v>11.8822193057773</v>
+        <v>11.8822201953606</v>
       </c>
       <c r="C206">
-        <v>12.89237941322536</v>
+        <v>12.89238037843608</v>
       </c>
       <c r="D206">
-        <v>11.62539884261477</v>
+        <v>11.62539971297076</v>
       </c>
       <c r="E206">
-        <v>12.7382869720459</v>
+        <v>12.73828792572021</v>
       </c>
       <c r="F206">
         <v>1258400</v>
@@ -6310,16 +6310,16 @@
         <v>44539</v>
       </c>
       <c r="B207">
-        <v>12.72972837880514</v>
+        <v>12.72972741344521</v>
       </c>
       <c r="C207">
-        <v>12.86669909930827</v>
+        <v>12.86669812356115</v>
       </c>
       <c r="D207">
-        <v>12.34449802328763</v>
+        <v>12.34449708714167</v>
       </c>
       <c r="E207">
-        <v>12.57563591003418</v>
+        <v>12.57563495635986</v>
       </c>
       <c r="F207">
         <v>451300</v>
@@ -6362,16 +6362,16 @@
         <v>44543</v>
       </c>
       <c r="B209">
-        <v>13.2776096101152</v>
+        <v>13.27761063303974</v>
       </c>
       <c r="C209">
-        <v>13.30329141133513</v>
+        <v>13.30329243623823</v>
       </c>
       <c r="D209">
-        <v>12.37873840332031</v>
+        <v>12.37873935699463</v>
       </c>
       <c r="E209">
-        <v>12.37873840332031</v>
+        <v>12.37873935699463</v>
       </c>
       <c r="F209">
         <v>757700</v>
@@ -6388,16 +6388,16 @@
         <v>44544</v>
       </c>
       <c r="B210">
-        <v>12.50714870658217</v>
+        <v>12.50714967416424</v>
       </c>
       <c r="C210">
-        <v>12.55851312740612</v>
+        <v>12.55851409896186</v>
       </c>
       <c r="D210">
-        <v>11.8650979365365</v>
+        <v>11.86509885444803</v>
       </c>
       <c r="E210">
-        <v>12.32737445831299</v>
+        <v>12.3273754119873</v>
       </c>
       <c r="F210">
         <v>992200</v>
@@ -6414,16 +6414,16 @@
         <v>44545</v>
       </c>
       <c r="B211">
-        <v>12.32737452845442</v>
+        <v>12.32737545510153</v>
       </c>
       <c r="C211">
-        <v>12.78109099635</v>
+        <v>12.78109195710291</v>
       </c>
       <c r="D211">
-        <v>12.0705548721027</v>
+        <v>12.0705557794447</v>
       </c>
       <c r="E211">
-        <v>12.68692302703857</v>
+        <v>12.68692398071289</v>
       </c>
       <c r="F211">
         <v>471400</v>
@@ -6440,16 +6440,16 @@
         <v>44546</v>
       </c>
       <c r="B212">
-        <v>12.76396937578131</v>
+        <v>12.76396842465862</v>
       </c>
       <c r="C212">
-        <v>13.1663214265096</v>
+        <v>13.16632044540516</v>
       </c>
       <c r="D212">
-        <v>12.63555954634515</v>
+        <v>12.63555860479108</v>
       </c>
       <c r="E212">
-        <v>12.7982120513916</v>
+        <v>12.79821109771729</v>
       </c>
       <c r="F212">
         <v>835200</v>
@@ -6466,16 +6466,16 @@
         <v>44547</v>
       </c>
       <c r="B213">
-        <v>12.59275576817153</v>
+        <v>12.59275667911631</v>
       </c>
       <c r="C213">
-        <v>13.22624566361872</v>
+        <v>13.22624662038939</v>
       </c>
       <c r="D213">
-        <v>12.48146687036436</v>
+        <v>12.48146777325863</v>
       </c>
       <c r="E213">
-        <v>13.18344211578369</v>
+        <v>13.18344306945801</v>
       </c>
       <c r="F213">
         <v>885900</v>
@@ -6544,16 +6544,16 @@
         <v>44552</v>
       </c>
       <c r="B216">
-        <v>12.04487219373578</v>
+        <v>12.0448731420183</v>
       </c>
       <c r="C216">
-        <v>12.36161714255731</v>
+        <v>12.36161811577689</v>
       </c>
       <c r="D216">
-        <v>11.88221969109059</v>
+        <v>11.88222062656762</v>
       </c>
       <c r="E216">
-        <v>12.11335754394531</v>
+        <v>12.11335849761963</v>
       </c>
       <c r="F216">
         <v>457300</v>
@@ -6622,16 +6622,16 @@
         <v>44558</v>
       </c>
       <c r="B219">
-        <v>12.58419453086643</v>
+        <v>12.58419547300435</v>
       </c>
       <c r="C219">
-        <v>12.90093946941664</v>
+        <v>12.90094043526823</v>
       </c>
       <c r="D219">
-        <v>12.43010290609671</v>
+        <v>12.43010383669828</v>
       </c>
       <c r="E219">
-        <v>12.7382869720459</v>
+        <v>12.73828792572021</v>
       </c>
       <c r="F219">
         <v>316500</v>
@@ -6674,16 +6674,16 @@
         <v>44560</v>
       </c>
       <c r="B221">
-        <v>12.60131656218714</v>
+        <v>12.60131748392625</v>
       </c>
       <c r="C221">
-        <v>13.23480645367124</v>
+        <v>13.23480742174776</v>
       </c>
       <c r="D221">
-        <v>12.49002766507619</v>
+        <v>12.49002857867493</v>
       </c>
       <c r="E221">
-        <v>13.03791046142578</v>
+        <v>13.0379114151001</v>
       </c>
       <c r="F221">
         <v>632000</v>
@@ -6700,16 +6700,16 @@
         <v>44564</v>
       </c>
       <c r="B222">
-        <v>13.17488280356749</v>
+        <v>13.1748817772005</v>
       </c>
       <c r="C222">
-        <v>13.28617170766115</v>
+        <v>13.28617067262439</v>
       </c>
       <c r="D222">
-        <v>12.05343370570815</v>
+        <v>12.05343276670576</v>
       </c>
       <c r="E222">
-        <v>12.2417688369751</v>
+        <v>12.24176788330078</v>
       </c>
       <c r="F222">
         <v>516500</v>
@@ -6726,16 +6726,16 @@
         <v>44565</v>
       </c>
       <c r="B223">
-        <v>12.22464743534731</v>
+        <v>12.22464639576956</v>
       </c>
       <c r="C223">
-        <v>12.44722524981684</v>
+        <v>12.44722419131118</v>
       </c>
       <c r="D223">
-        <v>11.07751650152269</v>
+        <v>11.07751555949637</v>
       </c>
       <c r="E223">
-        <v>11.21448802947998</v>
+        <v>11.21448707580566</v>
       </c>
       <c r="F223">
         <v>1569000</v>
@@ -6882,16 +6882,16 @@
         <v>44573</v>
       </c>
       <c r="B229">
-        <v>10.67516440780313</v>
+        <v>10.67516531216201</v>
       </c>
       <c r="C229">
-        <v>11.34289698271942</v>
+        <v>11.34289794364604</v>
       </c>
       <c r="D229">
-        <v>10.67516440780313</v>
+        <v>10.67516531216201</v>
       </c>
       <c r="E229">
-        <v>11.25728988647461</v>
+        <v>11.25729084014893</v>
       </c>
       <c r="F229">
         <v>1431500</v>
@@ -6934,16 +6934,16 @@
         <v>44575</v>
       </c>
       <c r="B231">
-        <v>11.42850473006539</v>
+        <v>11.42850377280582</v>
       </c>
       <c r="C231">
-        <v>11.42850473006539</v>
+        <v>11.42850377280582</v>
       </c>
       <c r="D231">
-        <v>10.86349933219792</v>
+        <v>10.8634984222636</v>
       </c>
       <c r="E231">
-        <v>11.38570117950439</v>
+        <v>11.38570022583008</v>
       </c>
       <c r="F231">
         <v>826500</v>
@@ -6960,16 +6960,16 @@
         <v>44578</v>
       </c>
       <c r="B232">
-        <v>11.53123295148772</v>
+        <v>11.53123200692941</v>
       </c>
       <c r="C232">
-        <v>11.69388546660664</v>
+        <v>11.69388450872497</v>
       </c>
       <c r="D232">
-        <v>11.28297333383684</v>
+        <v>11.28297240961423</v>
       </c>
       <c r="E232">
-        <v>11.64252185821533</v>
+        <v>11.64252090454102</v>
       </c>
       <c r="F232">
         <v>697800</v>
@@ -7064,16 +7064,16 @@
         <v>44582</v>
       </c>
       <c r="B236">
-        <v>11.96782598172038</v>
+        <v>11.96782693267374</v>
       </c>
       <c r="C236">
-        <v>12.30169267660808</v>
+        <v>12.3016936540902</v>
       </c>
       <c r="D236">
-        <v>11.70244545351536</v>
+        <v>11.7024463833818</v>
       </c>
       <c r="E236">
-        <v>12.0020694732666</v>
+        <v>12.00207042694092</v>
       </c>
       <c r="F236">
         <v>952700</v>
@@ -7142,16 +7142,16 @@
         <v>44587</v>
       </c>
       <c r="B239">
-        <v>11.91646203286415</v>
+        <v>11.91646299205103</v>
       </c>
       <c r="C239">
-        <v>12.37017766941326</v>
+        <v>12.37017866512088</v>
       </c>
       <c r="D239">
-        <v>11.68532337006514</v>
+        <v>11.68532431064707</v>
       </c>
       <c r="E239">
-        <v>11.84797668457031</v>
+        <v>11.84797763824463</v>
       </c>
       <c r="F239">
         <v>692200</v>
@@ -7272,16 +7272,16 @@
         <v>44594</v>
       </c>
       <c r="B244">
-        <v>13.0550325266737</v>
+        <v>13.05503155386209</v>
       </c>
       <c r="C244">
-        <v>13.32041387496081</v>
+        <v>13.32041288237399</v>
       </c>
       <c r="D244">
-        <v>12.46434616829368</v>
+        <v>12.46434523949779</v>
       </c>
       <c r="E244">
-        <v>12.7982120513916</v>
+        <v>12.79821109771729</v>
       </c>
       <c r="F244">
         <v>735300</v>
@@ -7324,16 +7324,16 @@
         <v>44596</v>
       </c>
       <c r="B246">
-        <v>13.08071436284891</v>
+        <v>13.08071340162573</v>
       </c>
       <c r="C246">
-        <v>13.08071436284891</v>
+        <v>13.08071340162573</v>
       </c>
       <c r="D246">
-        <v>12.52427067865116</v>
+        <v>12.52426975831768</v>
       </c>
       <c r="E246">
-        <v>12.97798633575439</v>
+        <v>12.97798538208008</v>
       </c>
       <c r="F246">
         <v>665100</v>
@@ -7402,16 +7402,16 @@
         <v>44601</v>
       </c>
       <c r="B249">
-        <v>13.16632187518029</v>
+        <v>13.16632092949938</v>
       </c>
       <c r="C249">
-        <v>13.66284109665439</v>
+        <v>13.66284011531062</v>
       </c>
       <c r="D249">
-        <v>13.07215471814547</v>
+        <v>13.07215377922819</v>
       </c>
       <c r="E249">
-        <v>13.27761077880859</v>
+        <v>13.27760982513428</v>
       </c>
       <c r="F249">
         <v>935700</v>
@@ -7454,16 +7454,16 @@
         <v>44603</v>
       </c>
       <c r="B251">
-        <v>13.2176855436256</v>
+        <v>13.21768454601511</v>
       </c>
       <c r="C251">
-        <v>13.62003760993651</v>
+        <v>13.62003658195833</v>
       </c>
       <c r="D251">
-        <v>12.42154310075016</v>
+        <v>12.42154216322886</v>
       </c>
       <c r="E251">
-        <v>12.63556003570557</v>
+        <v>12.63555908203125</v>
       </c>
       <c r="F251">
         <v>1090400</v>
@@ -7480,16 +7480,16 @@
         <v>44606</v>
       </c>
       <c r="B252">
-        <v>12.68692307243042</v>
+        <v>12.68692402868572</v>
       </c>
       <c r="C252">
-        <v>13.04647157230098</v>
+        <v>13.04647255565664</v>
       </c>
       <c r="D252">
-        <v>12.38729986681147</v>
+        <v>12.38730080048319</v>
       </c>
       <c r="E252">
-        <v>12.65268039703369</v>
+        <v>12.65268135070801</v>
       </c>
       <c r="F252">
         <v>633800</v>
@@ -7610,16 +7610,16 @@
         <v>44613</v>
       </c>
       <c r="B257">
-        <v>12.92662317053082</v>
+        <v>12.92662416025469</v>
       </c>
       <c r="C257">
-        <v>13.05503300466855</v>
+        <v>13.05503400422409</v>
       </c>
       <c r="D257">
-        <v>12.25032969015848</v>
+        <v>12.2503306281021</v>
       </c>
       <c r="E257">
-        <v>12.45578575134277</v>
+        <v>12.45578670501709</v>
       </c>
       <c r="F257">
         <v>758700</v>
@@ -7636,16 +7636,16 @@
         <v>44614</v>
       </c>
       <c r="B258">
-        <v>12.57563383386467</v>
+        <v>12.57563288213403</v>
       </c>
       <c r="C258">
-        <v>13.0036676729758</v>
+        <v>13.00366668885133</v>
       </c>
       <c r="D258">
-        <v>12.47290581044717</v>
+        <v>12.47290486649104</v>
       </c>
       <c r="E258">
-        <v>12.60131645202637</v>
+        <v>12.60131549835205</v>
       </c>
       <c r="F258">
         <v>660200</v>
@@ -7662,16 +7662,16 @@
         <v>44615</v>
       </c>
       <c r="B259">
-        <v>12.78965256102921</v>
+        <v>12.78965157021601</v>
       </c>
       <c r="C259">
-        <v>12.90094147289614</v>
+        <v>12.90094047346141</v>
       </c>
       <c r="D259">
-        <v>12.19896613879224</v>
+        <v>12.19896519373947</v>
       </c>
       <c r="E259">
-        <v>12.31025505065918</v>
+        <v>12.31025409698486</v>
       </c>
       <c r="F259">
         <v>410800</v>
@@ -7688,16 +7688,16 @@
         <v>44616</v>
       </c>
       <c r="B260">
-        <v>11.60827971655528</v>
+        <v>11.60827881726292</v>
       </c>
       <c r="C260">
-        <v>12.41298308859561</v>
+        <v>12.41298212696297</v>
       </c>
       <c r="D260">
-        <v>11.36858014496039</v>
+        <v>11.36857926423754</v>
       </c>
       <c r="E260">
-        <v>12.31025505065918</v>
+        <v>12.31025409698486</v>
       </c>
       <c r="F260">
         <v>1054800</v>
@@ -7714,16 +7714,16 @@
         <v>44617</v>
       </c>
       <c r="B261">
-        <v>12.23320883169072</v>
+        <v>12.2332078976259</v>
       </c>
       <c r="C261">
-        <v>12.49002933502197</v>
+        <v>12.49002838134766</v>
       </c>
       <c r="D261">
-        <v>12.00207095017951</v>
+        <v>12.00207003376318</v>
       </c>
       <c r="E261">
-        <v>12.49002933502197</v>
+        <v>12.49002838134766</v>
       </c>
       <c r="F261">
         <v>538900</v>
@@ -7766,16 +7766,16 @@
         <v>44623</v>
       </c>
       <c r="B263">
-        <v>12.26745112216579</v>
+        <v>12.26745016246403</v>
       </c>
       <c r="C263">
-        <v>12.6355605258186</v>
+        <v>12.63555953731907</v>
       </c>
       <c r="D263">
-        <v>12.07911598350507</v>
+        <v>12.07911503853705</v>
       </c>
       <c r="E263">
-        <v>12.19040489196777</v>
+        <v>12.19040393829346</v>
       </c>
       <c r="F263">
         <v>595400</v>
@@ -7818,16 +7818,16 @@
         <v>44627</v>
       </c>
       <c r="B265">
-        <v>11.61683936937241</v>
+        <v>11.61683835911794</v>
       </c>
       <c r="C265">
-        <v>11.79661363360072</v>
+        <v>11.79661260771225</v>
       </c>
       <c r="D265">
-        <v>10.87206050797221</v>
+        <v>10.87205956248718</v>
       </c>
       <c r="E265">
-        <v>10.96622848510742</v>
+        <v>10.96622753143311</v>
       </c>
       <c r="F265">
         <v>709900</v>
@@ -7870,16 +7870,16 @@
         <v>44629</v>
       </c>
       <c r="B267">
-        <v>11.21448704485704</v>
+        <v>11.21448793089488</v>
       </c>
       <c r="C267">
-        <v>12.17328275791751</v>
+        <v>12.1732837197082</v>
       </c>
       <c r="D267">
-        <v>11.20592617203451</v>
+        <v>11.20592705739597</v>
       </c>
       <c r="E267">
-        <v>12.07055473327637</v>
+        <v>12.07055568695068</v>
       </c>
       <c r="F267">
         <v>567000</v>
@@ -8000,16 +8000,16 @@
         <v>44636</v>
       </c>
       <c r="B272">
-        <v>11.38570166445175</v>
+        <v>11.38570075259921</v>
       </c>
       <c r="C272">
-        <v>12.04487343209161</v>
+        <v>12.04487246744765</v>
       </c>
       <c r="D272">
-        <v>11.24017007619168</v>
+        <v>11.24016917599441</v>
       </c>
       <c r="E272">
-        <v>11.90790271759033</v>
+        <v>11.90790176391602</v>
       </c>
       <c r="F272">
         <v>1208500</v>
@@ -8026,16 +8026,16 @@
         <v>44637</v>
       </c>
       <c r="B273">
-        <v>12.23320836128096</v>
+        <v>12.23320745214112</v>
       </c>
       <c r="C273">
-        <v>12.8324556350708</v>
+        <v>12.83245468139648</v>
       </c>
       <c r="D273">
-        <v>11.90790251175851</v>
+        <v>11.90790162679455</v>
       </c>
       <c r="E273">
-        <v>12.8324556350708</v>
+        <v>12.83245468139648</v>
       </c>
       <c r="F273">
         <v>1135500</v>
@@ -8052,16 +8052,16 @@
         <v>44638</v>
       </c>
       <c r="B274">
-        <v>12.91806157510993</v>
+        <v>12.91806247342112</v>
       </c>
       <c r="C274">
-        <v>13.71420478820801</v>
+        <v>13.71420574188232</v>
       </c>
       <c r="D274">
-        <v>12.78109087531021</v>
+        <v>12.78109176409657</v>
       </c>
       <c r="E274">
-        <v>13.71420478820801</v>
+        <v>13.71420574188232</v>
       </c>
       <c r="F274">
         <v>1230200</v>
@@ -8104,16 +8104,16 @@
         <v>44642</v>
       </c>
       <c r="B276">
-        <v>13.63197364037678</v>
+        <v>13.63197457038669</v>
       </c>
       <c r="C276">
-        <v>14.23899519165407</v>
+        <v>14.23899616307662</v>
       </c>
       <c r="D276">
-        <v>13.63197364037678</v>
+        <v>13.63197457038669</v>
       </c>
       <c r="E276">
-        <v>13.97884368896484</v>
+        <v>13.97884464263916</v>
       </c>
       <c r="F276">
         <v>719300</v>
@@ -8208,16 +8208,16 @@
         <v>44648</v>
       </c>
       <c r="B280">
-        <v>14.65523880717356</v>
+        <v>14.65524073390351</v>
       </c>
       <c r="C280">
-        <v>14.68992655763458</v>
+        <v>14.68992848892494</v>
       </c>
       <c r="D280">
-        <v>14.10024803182118</v>
+        <v>14.10024988558627</v>
       </c>
       <c r="E280">
-        <v>14.50781917572021</v>
+        <v>14.50782108306885</v>
       </c>
       <c r="F280">
         <v>433000</v>
@@ -8234,16 +8234,16 @@
         <v>44649</v>
       </c>
       <c r="B281">
-        <v>14.74195750875363</v>
+        <v>14.74195653736581</v>
       </c>
       <c r="C281">
-        <v>14.99343875429503</v>
+        <v>14.99343776633642</v>
       </c>
       <c r="D281">
-        <v>14.42977434987551</v>
+        <v>14.42977339905828</v>
       </c>
       <c r="E281">
-        <v>14.47313404083252</v>
+        <v>14.4731330871582</v>
       </c>
       <c r="F281">
         <v>951700</v>
@@ -8260,16 +8260,16 @@
         <v>44650</v>
       </c>
       <c r="B282">
-        <v>14.48180459666914</v>
+        <v>14.48180557135468</v>
       </c>
       <c r="C282">
-        <v>14.59453647439042</v>
+        <v>14.59453745666328</v>
       </c>
       <c r="D282">
-        <v>13.95282799550848</v>
+        <v>13.95282893459169</v>
       </c>
       <c r="E282">
-        <v>14.16962146759033</v>
+        <v>14.16962242126465</v>
       </c>
       <c r="F282">
         <v>813900</v>
@@ -8312,16 +8312,16 @@
         <v>44652</v>
       </c>
       <c r="B284">
-        <v>14.39508578564186</v>
+        <v>14.39508765360567</v>
       </c>
       <c r="C284">
-        <v>14.82867269693226</v>
+        <v>14.82867462116004</v>
       </c>
       <c r="D284">
-        <v>14.29102419917093</v>
+        <v>14.2910260536313</v>
       </c>
       <c r="E284">
-        <v>14.6985969543457</v>
+        <v>14.69859886169434</v>
       </c>
       <c r="F284">
         <v>629900</v>
@@ -8338,16 +8338,16 @@
         <v>44655</v>
       </c>
       <c r="B285">
-        <v>14.75930011896247</v>
+        <v>14.75930104966985</v>
       </c>
       <c r="C285">
-        <v>15.17554319242249</v>
+        <v>15.17554414937777</v>
       </c>
       <c r="D285">
-        <v>14.56852080312441</v>
+        <v>14.56852172180144</v>
       </c>
       <c r="E285">
-        <v>15.12351322174072</v>
+        <v>15.12351417541504</v>
       </c>
       <c r="F285">
         <v>787800</v>
@@ -8546,16 +8546,16 @@
         <v>44665</v>
       </c>
       <c r="B293">
-        <v>13.36315037552879</v>
+        <v>13.36314939644013</v>
       </c>
       <c r="C293">
-        <v>13.39783730028871</v>
+        <v>13.39783631865861</v>
       </c>
       <c r="D293">
-        <v>12.87753342889004</v>
+        <v>12.87753248538147</v>
       </c>
       <c r="E293">
-        <v>13.01628112792969</v>
+        <v>13.01628017425537</v>
       </c>
       <c r="F293">
         <v>587700</v>
@@ -8572,16 +8572,16 @@
         <v>44669</v>
       </c>
       <c r="B294">
-        <v>13.03362446644271</v>
+        <v>13.03362352219209</v>
       </c>
       <c r="C294">
-        <v>13.25041795776013</v>
+        <v>13.25041699780341</v>
       </c>
       <c r="D294">
-        <v>12.90354870245287</v>
+        <v>12.90354776762589</v>
       </c>
       <c r="E294">
-        <v>13.16370105743408</v>
+        <v>13.16370010375977</v>
       </c>
       <c r="F294">
         <v>437500</v>
@@ -8624,16 +8624,16 @@
         <v>44671</v>
       </c>
       <c r="B296">
-        <v>13.28510398251393</v>
+        <v>13.2851049393109</v>
       </c>
       <c r="C296">
-        <v>13.47588247349823</v>
+        <v>13.47588344403513</v>
       </c>
       <c r="D296">
-        <v>12.95557779881431</v>
+        <v>12.95557873187871</v>
       </c>
       <c r="E296">
-        <v>13.2417459487915</v>
+        <v>13.24174690246582</v>
       </c>
       <c r="F296">
         <v>356300</v>
@@ -8702,16 +8702,16 @@
         <v>44677</v>
       </c>
       <c r="B299">
-        <v>12.89487667148872</v>
+        <v>12.89487570547123</v>
       </c>
       <c r="C299">
-        <v>13.10299822317479</v>
+        <v>13.10299724156591</v>
       </c>
       <c r="D299">
-        <v>12.44394664283557</v>
+        <v>12.44394571059943</v>
       </c>
       <c r="E299">
-        <v>12.7301139831543</v>
+        <v>12.73011302947998</v>
       </c>
       <c r="F299">
         <v>317100</v>
@@ -8728,16 +8728,16 @@
         <v>44678</v>
       </c>
       <c r="B300">
-        <v>13.00760890137119</v>
+        <v>13.00760789679851</v>
       </c>
       <c r="C300">
-        <v>13.00760890137119</v>
+        <v>13.00760789679851</v>
       </c>
       <c r="D300">
-        <v>12.33988458080675</v>
+        <v>12.33988362780216</v>
       </c>
       <c r="E300">
-        <v>12.34855651855469</v>
+        <v>12.34855556488037</v>
       </c>
       <c r="F300">
         <v>541200</v>
@@ -8936,16 +8936,16 @@
         <v>44690</v>
       </c>
       <c r="B308">
-        <v>11.68083267322571</v>
+        <v>11.68083368154545</v>
       </c>
       <c r="C308">
-        <v>11.81090842752162</v>
+        <v>11.81090944706983</v>
       </c>
       <c r="D308">
-        <v>11.04779529571533</v>
+        <v>11.04779624938965</v>
       </c>
       <c r="E308">
-        <v>11.04779529571533</v>
+        <v>11.04779624938965</v>
       </c>
       <c r="F308">
         <v>985400</v>
@@ -8962,16 +8962,16 @@
         <v>44691</v>
       </c>
       <c r="B309">
-        <v>11.06513997952679</v>
+        <v>11.06513906457308</v>
       </c>
       <c r="C309">
-        <v>11.55942887438445</v>
+        <v>11.55942791855901</v>
       </c>
       <c r="D309">
-        <v>10.67491186111276</v>
+        <v>10.67491097842622</v>
       </c>
       <c r="E309">
-        <v>11.53341388702393</v>
+        <v>11.53341293334961</v>
       </c>
       <c r="F309">
         <v>714300</v>
@@ -8988,16 +8988,16 @@
         <v>44692</v>
       </c>
       <c r="B310">
-        <v>11.64614660158825</v>
+        <v>11.6461456385923</v>
       </c>
       <c r="C310">
-        <v>12.20113740928765</v>
+        <v>12.20113640040065</v>
       </c>
       <c r="D310">
-        <v>11.34263538337649</v>
+        <v>11.34263444547726</v>
       </c>
       <c r="E310">
-        <v>11.53341388702393</v>
+        <v>11.53341293334961</v>
       </c>
       <c r="F310">
         <v>708700</v>
@@ -9014,16 +9014,16 @@
         <v>44693</v>
       </c>
       <c r="B311">
-        <v>11.39466616615761</v>
+        <v>11.39466524609293</v>
       </c>
       <c r="C311">
-        <v>11.81090927124023</v>
+        <v>11.81090831756592</v>
       </c>
       <c r="D311">
-        <v>11.24724652635713</v>
+        <v>11.24724561819588</v>
       </c>
       <c r="E311">
-        <v>11.81090927124023</v>
+        <v>11.81090831756592</v>
       </c>
       <c r="F311">
         <v>295100</v>
@@ -9040,16 +9040,16 @@
         <v>44694</v>
       </c>
       <c r="B312">
-        <v>12.00168786029756</v>
+        <v>12.00168693471183</v>
       </c>
       <c r="C312">
-        <v>12.62605334938282</v>
+        <v>12.62605237564522</v>
       </c>
       <c r="D312">
-        <v>11.95832899645803</v>
+        <v>11.95832807421619</v>
       </c>
       <c r="E312">
-        <v>12.36590099334717</v>
+        <v>12.36590003967285</v>
       </c>
       <c r="F312">
         <v>984500</v>
@@ -9066,16 +9066,16 @@
         <v>44697</v>
       </c>
       <c r="B313">
-        <v>12.48730360164469</v>
+        <v>12.48730458962384</v>
       </c>
       <c r="C313">
-        <v>12.57402132086504</v>
+        <v>12.57402231570518</v>
       </c>
       <c r="D313">
-        <v>11.85426706314115</v>
+        <v>11.85426800103528</v>
       </c>
       <c r="E313">
-        <v>12.0537166595459</v>
+        <v>12.05371761322021</v>
       </c>
       <c r="F313">
         <v>868000</v>
@@ -9144,16 +9144,16 @@
         <v>44700</v>
       </c>
       <c r="B316">
-        <v>11.62013000468969</v>
+        <v>11.62013096625745</v>
       </c>
       <c r="C316">
-        <v>11.75887852427231</v>
+        <v>11.75887949732153</v>
       </c>
       <c r="D316">
-        <v>11.28193271077353</v>
+        <v>11.28193364435541</v>
       </c>
       <c r="E316">
-        <v>11.52474117279053</v>
+        <v>11.52474212646484</v>
       </c>
       <c r="F316">
         <v>623400</v>
@@ -9326,16 +9326,16 @@
         <v>44711</v>
       </c>
       <c r="B323">
-        <v>12.00168669584381</v>
+        <v>12.00168763593303</v>
       </c>
       <c r="C323">
-        <v>12.37457173088277</v>
+        <v>12.37457270017999</v>
       </c>
       <c r="D323">
-        <v>11.94965589888431</v>
+        <v>11.94965683489797</v>
       </c>
       <c r="E323">
-        <v>12.17512130737305</v>
+        <v>12.17512226104736</v>
       </c>
       <c r="F323">
         <v>399800</v>
@@ -9378,16 +9378,16 @@
         <v>44713</v>
       </c>
       <c r="B325">
-        <v>12.20113652746097</v>
+        <v>12.20113748727484</v>
       </c>
       <c r="C325">
-        <v>12.27051037340946</v>
+        <v>12.27051133868068</v>
       </c>
       <c r="D325">
-        <v>11.90629726867915</v>
+        <v>11.90629820529921</v>
       </c>
       <c r="E325">
-        <v>12.12309074401855</v>
+        <v>12.12309169769287</v>
       </c>
       <c r="F325">
         <v>431700</v>
@@ -9404,16 +9404,16 @@
         <v>44714</v>
       </c>
       <c r="B326">
-        <v>12.09707635620069</v>
+        <v>12.09707730646902</v>
       </c>
       <c r="C326">
-        <v>12.30519790432852</v>
+        <v>12.30519887094553</v>
       </c>
       <c r="D326">
-        <v>12.01035945798152</v>
+        <v>12.01036040143793</v>
       </c>
       <c r="E326">
-        <v>12.14043521881104</v>
+        <v>12.14043617248535</v>
       </c>
       <c r="F326">
         <v>499100</v>
@@ -9508,16 +9508,16 @@
         <v>44720</v>
       </c>
       <c r="B330">
-        <v>11.7241923151452</v>
+        <v>11.7241913621757</v>
       </c>
       <c r="C330">
-        <v>11.88028306530437</v>
+        <v>11.88028209964745</v>
       </c>
       <c r="D330">
-        <v>11.5160699365971</v>
+        <v>11.51606900054426</v>
       </c>
       <c r="E330">
-        <v>11.7328634262085</v>
+        <v>11.73286247253418</v>
       </c>
       <c r="F330">
         <v>487800</v>
@@ -9586,16 +9586,16 @@
         <v>44725</v>
       </c>
       <c r="B333">
-        <v>11.27326234236358</v>
+        <v>11.27326041275023</v>
       </c>
       <c r="C333">
-        <v>11.45536892097413</v>
+        <v>11.4553669601901</v>
       </c>
       <c r="D333">
-        <v>10.96975110234546</v>
+        <v>10.9697492246833</v>
       </c>
       <c r="E333">
-        <v>11.14318656921387</v>
+        <v>11.14318466186523</v>
       </c>
       <c r="F333">
         <v>842600</v>
@@ -9690,16 +9690,16 @@
         <v>44732</v>
       </c>
       <c r="B337">
-        <v>10.73561335044306</v>
+        <v>10.73561238428202</v>
       </c>
       <c r="C337">
-        <v>10.75295639899873</v>
+        <v>10.75295543127689</v>
       </c>
       <c r="D337">
-        <v>10.40608715787032</v>
+        <v>10.40608622136529</v>
       </c>
       <c r="E337">
-        <v>10.5968656539917</v>
+        <v>10.59686470031738</v>
       </c>
       <c r="F337">
         <v>322300</v>
@@ -9742,16 +9742,16 @@
         <v>44734</v>
       </c>
       <c r="B339">
-        <v>10.39741397736185</v>
+        <v>10.39741492628755</v>
       </c>
       <c r="C339">
-        <v>10.77029898725769</v>
+        <v>10.77029997021494</v>
       </c>
       <c r="D339">
-        <v>10.28468128071889</v>
+        <v>10.28468221935598</v>
       </c>
       <c r="E339">
-        <v>10.44944477081299</v>
+        <v>10.4494457244873</v>
       </c>
       <c r="F339">
         <v>555500</v>
@@ -9768,16 +9768,16 @@
         <v>44735</v>
       </c>
       <c r="B340">
-        <v>10.46678984355618</v>
+        <v>10.46678889145952</v>
       </c>
       <c r="C340">
-        <v>10.62288142712587</v>
+        <v>10.62288046083057</v>
       </c>
       <c r="D340">
-        <v>10.35405712508935</v>
+        <v>10.35405618324726</v>
       </c>
       <c r="E340">
-        <v>10.48413372039795</v>
+        <v>10.48413276672363</v>
       </c>
       <c r="F340">
         <v>681400</v>
@@ -9846,16 +9846,16 @@
         <v>44740</v>
       </c>
       <c r="B343">
-        <v>10.87436036525814</v>
+        <v>10.8743613527954</v>
       </c>
       <c r="C343">
-        <v>10.87436036525814</v>
+        <v>10.8743613527954</v>
       </c>
       <c r="D343">
-        <v>10.31936878723965</v>
+        <v>10.31936972437626</v>
       </c>
       <c r="E343">
-        <v>10.50147533416748</v>
+        <v>10.5014762878418</v>
       </c>
       <c r="F343">
         <v>465300</v>
@@ -9872,16 +9872,16 @@
         <v>44741</v>
       </c>
       <c r="B344">
-        <v>10.57084857719663</v>
+        <v>10.57084954195094</v>
       </c>
       <c r="C344">
-        <v>10.57084857719663</v>
+        <v>10.57084954195094</v>
       </c>
       <c r="D344">
-        <v>10.20663633104429</v>
+        <v>10.20663726255856</v>
       </c>
       <c r="E344">
-        <v>10.44944477081299</v>
+        <v>10.4494457244873</v>
       </c>
       <c r="F344">
         <v>473500</v>
@@ -9924,16 +9924,16 @@
         <v>44743</v>
       </c>
       <c r="B346">
-        <v>10.34538613766135</v>
+        <v>10.34538518875934</v>
       </c>
       <c r="C346">
-        <v>10.5188207731499</v>
+        <v>10.51881980834008</v>
       </c>
       <c r="D346">
-        <v>10.18062261369605</v>
+        <v>10.18062167990652</v>
       </c>
       <c r="E346">
-        <v>10.39741611480713</v>
+        <v>10.39741516113281</v>
       </c>
       <c r="F346">
         <v>315500</v>
@@ -9950,16 +9950,16 @@
         <v>44746</v>
       </c>
       <c r="B347">
-        <v>10.36272739200036</v>
+        <v>10.3627283652205</v>
       </c>
       <c r="C347">
-        <v>10.46678815526128</v>
+        <v>10.46678913825434</v>
       </c>
       <c r="D347">
-        <v>10.15460586547852</v>
+        <v>10.15460681915283</v>
       </c>
       <c r="E347">
-        <v>10.15460586547852</v>
+        <v>10.15460681915283</v>
       </c>
       <c r="F347">
         <v>252900</v>
@@ -10054,16 +10054,16 @@
         <v>44750</v>
       </c>
       <c r="B351">
-        <v>9.894453875948455</v>
+        <v>9.894454844908761</v>
       </c>
       <c r="C351">
-        <v>10.11991928408261</v>
+        <v>10.11992027512266</v>
       </c>
       <c r="D351">
-        <v>9.729691202005167</v>
+        <v>9.729692154830325</v>
       </c>
       <c r="E351">
-        <v>9.738362312316895</v>
+        <v>9.738363265991211</v>
       </c>
       <c r="F351">
         <v>356300</v>
@@ -10080,16 +10080,16 @@
         <v>44753</v>
       </c>
       <c r="B352">
-        <v>9.677661610933956</v>
+        <v>9.67766064250762</v>
       </c>
       <c r="C352">
-        <v>9.712348537507134</v>
+        <v>9.71234756560974</v>
       </c>
       <c r="D352">
-        <v>9.296105418628995</v>
+        <v>9.296104488384307</v>
       </c>
       <c r="E352">
-        <v>9.530241966247559</v>
+        <v>9.530241012573242</v>
       </c>
       <c r="F352">
         <v>794100</v>
@@ -10106,16 +10106,16 @@
         <v>44754</v>
       </c>
       <c r="B353">
-        <v>9.538913432019932</v>
+        <v>9.538912475737597</v>
       </c>
       <c r="C353">
-        <v>9.712348056292717</v>
+        <v>9.712347082623445</v>
       </c>
       <c r="D353">
-        <v>9.417508781528221</v>
+        <v>9.417507837416782</v>
       </c>
       <c r="E353">
-        <v>9.512898445129395</v>
+        <v>9.512897491455078</v>
       </c>
       <c r="F353">
         <v>312500</v>
@@ -10158,16 +10158,16 @@
         <v>44756</v>
       </c>
       <c r="B355">
-        <v>9.304776071640489</v>
+        <v>9.304775126772062</v>
       </c>
       <c r="C355">
-        <v>9.434852660133124</v>
+        <v>9.434851702055862</v>
       </c>
       <c r="D355">
-        <v>9.157357261217937</v>
+        <v>9.157356331319392</v>
       </c>
       <c r="E355">
-        <v>9.391493797302246</v>
+        <v>9.39149284362793</v>
       </c>
       <c r="F355">
         <v>672800</v>
@@ -10314,16 +10314,16 @@
         <v>44764</v>
       </c>
       <c r="B361">
-        <v>10.58819317340645</v>
+        <v>10.5881941317903</v>
       </c>
       <c r="C361">
-        <v>10.69225394041027</v>
+        <v>10.69225490821312</v>
       </c>
       <c r="D361">
-        <v>10.4060866243994</v>
+        <v>10.40608756629999</v>
       </c>
       <c r="E361">
-        <v>10.53616237640381</v>
+        <v>10.53616333007812</v>
       </c>
       <c r="F361">
         <v>290600</v>
@@ -10418,16 +10418,16 @@
         <v>44770</v>
       </c>
       <c r="B365">
-        <v>10.6488960701738</v>
+        <v>10.64889515809279</v>
       </c>
       <c r="C365">
-        <v>11.16920078053798</v>
+        <v>11.16919982389272</v>
       </c>
       <c r="D365">
-        <v>10.6488960701738</v>
+        <v>10.64889515809279</v>
       </c>
       <c r="E365">
-        <v>11.13451385498047</v>
+        <v>11.13451290130615</v>
       </c>
       <c r="F365">
         <v>484600</v>
@@ -10444,16 +10444,16 @@
         <v>44771</v>
       </c>
       <c r="B366">
-        <v>11.18654328750037</v>
+        <v>11.18654233456478</v>
       </c>
       <c r="C366">
-        <v>11.22990214909564</v>
+        <v>11.22990119246649</v>
       </c>
       <c r="D366">
-        <v>11.03045254355952</v>
+        <v>11.03045160392066</v>
       </c>
       <c r="E366">
-        <v>11.19521522521973</v>
+        <v>11.19521427154541</v>
       </c>
       <c r="F366">
         <v>252900</v>
@@ -10470,16 +10470,16 @@
         <v>44774</v>
       </c>
       <c r="B367">
-        <v>11.09115567484351</v>
+        <v>11.09115372791698</v>
       </c>
       <c r="C367">
-        <v>11.16920146890834</v>
+        <v>11.16919950828175</v>
       </c>
       <c r="D367">
-        <v>10.73561445921625</v>
+        <v>10.73561257470095</v>
       </c>
       <c r="E367">
-        <v>10.86569023132324</v>
+        <v>10.86568832397461</v>
       </c>
       <c r="F367">
         <v>354600</v>
@@ -10496,16 +10496,16 @@
         <v>44775</v>
       </c>
       <c r="B368">
-        <v>10.89170467319769</v>
+        <v>10.89170561045512</v>
       </c>
       <c r="C368">
-        <v>11.20388698306904</v>
+        <v>11.20388794719052</v>
       </c>
       <c r="D368">
-        <v>10.70092618144223</v>
+        <v>10.70092710228272</v>
       </c>
       <c r="E368">
-        <v>11.08248233795166</v>
+        <v>11.08248329162598</v>
       </c>
       <c r="F368">
         <v>572100</v>
@@ -10574,16 +10574,16 @@
         <v>44778</v>
       </c>
       <c r="B371">
-        <v>11.83692402303398</v>
+        <v>11.83692306161196</v>
       </c>
       <c r="C371">
-        <v>11.83692402303398</v>
+        <v>11.83692306161196</v>
       </c>
       <c r="D371">
-        <v>11.44669591303314</v>
+        <v>11.44669498330634</v>
       </c>
       <c r="E371">
-        <v>11.74153518676758</v>
+        <v>11.74153423309326</v>
       </c>
       <c r="F371">
         <v>303100</v>
@@ -10652,16 +10652,16 @@
         <v>44783</v>
       </c>
       <c r="B374">
-        <v>11.92364161698076</v>
+        <v>11.92364255630897</v>
       </c>
       <c r="C374">
-        <v>12.36590052270913</v>
+        <v>12.3659014968779</v>
       </c>
       <c r="D374">
-        <v>11.83692389260211</v>
+        <v>11.83692482509882</v>
       </c>
       <c r="E374">
-        <v>12.10574817657471</v>
+        <v>12.10574913024902</v>
       </c>
       <c r="F374">
         <v>467300</v>
@@ -10704,16 +10704,16 @@
         <v>44785</v>
       </c>
       <c r="B376">
-        <v>12.01903087027705</v>
+        <v>12.01902998316792</v>
       </c>
       <c r="C376">
-        <v>13.07698334029038</v>
+        <v>13.07698237509514</v>
       </c>
       <c r="D376">
-        <v>12.01903087027705</v>
+        <v>12.01902998316792</v>
       </c>
       <c r="E376">
-        <v>12.92089176177979</v>
+        <v>12.92089080810547</v>
       </c>
       <c r="F376">
         <v>982500</v>
@@ -10730,16 +10730,16 @@
         <v>44788</v>
       </c>
       <c r="B377">
-        <v>12.71276992067375</v>
+        <v>12.71277086981603</v>
       </c>
       <c r="C377">
-        <v>12.9382353451963</v>
+        <v>12.93823631117195</v>
       </c>
       <c r="D377">
-        <v>12.45261757137862</v>
+        <v>12.45261850109778</v>
       </c>
       <c r="E377">
-        <v>12.77347183227539</v>
+        <v>12.77347278594971</v>
       </c>
       <c r="F377">
         <v>398800</v>
@@ -10756,16 +10756,16 @@
         <v>44789</v>
       </c>
       <c r="B378">
-        <v>12.76480043343935</v>
+        <v>12.76479944761867</v>
       </c>
       <c r="C378">
-        <v>12.88620425390452</v>
+        <v>12.88620325870787</v>
       </c>
       <c r="D378">
-        <v>12.27051073282622</v>
+        <v>12.27050978517935</v>
       </c>
       <c r="E378">
-        <v>12.34855651855469</v>
+        <v>12.34855556488037</v>
       </c>
       <c r="F378">
         <v>258000</v>
@@ -10938,16 +10938,16 @@
         <v>44798</v>
       </c>
       <c r="B385">
-        <v>12.21848088656433</v>
+        <v>12.21848183956227</v>
       </c>
       <c r="C385">
-        <v>12.26183974875045</v>
+        <v>12.26184070513022</v>
       </c>
       <c r="D385">
-        <v>12.01035934047276</v>
+        <v>12.01036027723795</v>
       </c>
       <c r="E385">
-        <v>12.22715282440186</v>
+        <v>12.22715377807617</v>
       </c>
       <c r="F385">
         <v>195800</v>
@@ -10964,16 +10964,16 @@
         <v>44799</v>
       </c>
       <c r="B386">
-        <v>12.32254117137157</v>
+        <v>12.32254214073584</v>
       </c>
       <c r="C386">
-        <v>12.38324307982613</v>
+        <v>12.38324405396557</v>
       </c>
       <c r="D386">
-        <v>11.9930149896155</v>
+        <v>11.99301593305729</v>
       </c>
       <c r="E386">
-        <v>12.12309074401855</v>
+        <v>12.12309169769287</v>
       </c>
       <c r="F386">
         <v>320300</v>
@@ -10990,16 +10990,16 @@
         <v>44802</v>
       </c>
       <c r="B387">
-        <v>12.14043510002961</v>
+        <v>12.14043604694025</v>
       </c>
       <c r="C387">
-        <v>12.34855664612119</v>
+        <v>12.34855760926457</v>
       </c>
       <c r="D387">
-        <v>11.83692389172827</v>
+        <v>11.83692481496612</v>
       </c>
       <c r="E387">
-        <v>12.22715282440186</v>
+        <v>12.22715377807617</v>
       </c>
       <c r="F387">
         <v>339200</v>
@@ -11094,16 +11094,16 @@
         <v>44806</v>
       </c>
       <c r="B391">
-        <v>12.66941071290193</v>
+        <v>12.66940974733151</v>
       </c>
       <c r="C391">
-        <v>12.73878456055767</v>
+        <v>12.73878358970008</v>
       </c>
       <c r="D391">
-        <v>12.39191532227894</v>
+        <v>12.3919143778572</v>
       </c>
       <c r="E391">
-        <v>12.51331996917725</v>
+        <v>12.51331901550293</v>
       </c>
       <c r="F391">
         <v>327200</v>
@@ -11146,16 +11146,16 @@
         <v>44810</v>
       </c>
       <c r="B393">
-        <v>12.32254094019245</v>
+        <v>12.3225418958844</v>
       </c>
       <c r="C393">
-        <v>12.3832428475082</v>
+        <v>12.38324380790797</v>
       </c>
       <c r="D393">
-        <v>12.16644937623599</v>
+        <v>12.16645031982204</v>
       </c>
       <c r="E393">
-        <v>12.2965259552002</v>
+        <v>12.29652690887451</v>
       </c>
       <c r="F393">
         <v>290000</v>
@@ -11172,16 +11172,16 @@
         <v>44812</v>
       </c>
       <c r="B394">
-        <v>12.39191580299222</v>
+        <v>12.39191484798132</v>
       </c>
       <c r="C394">
-        <v>12.4699615913829</v>
+        <v>12.46996063035722</v>
       </c>
       <c r="D394">
-        <v>12.24449616425461</v>
+        <v>12.24449522060494</v>
       </c>
       <c r="E394">
-        <v>12.37457275390625</v>
+        <v>12.37457180023193</v>
       </c>
       <c r="F394">
         <v>301800</v>
@@ -11198,16 +11198,16 @@
         <v>44813</v>
       </c>
       <c r="B395">
-        <v>12.49597515581226</v>
+        <v>12.49597701919487</v>
       </c>
       <c r="C395">
-        <v>12.9295620846163</v>
+        <v>12.9295640126548</v>
       </c>
       <c r="D395">
-        <v>12.37457134502805</v>
+        <v>12.37457319030709</v>
       </c>
       <c r="E395">
-        <v>12.79081439971924</v>
+        <v>12.79081630706787</v>
       </c>
       <c r="F395">
         <v>665700</v>
@@ -11250,16 +11250,16 @@
         <v>44817</v>
       </c>
       <c r="B397">
-        <v>12.86018931976067</v>
+        <v>12.86019027601422</v>
       </c>
       <c r="C397">
-        <v>12.89487624389145</v>
+        <v>12.89487720272425</v>
       </c>
       <c r="D397">
-        <v>12.61738085084517</v>
+        <v>12.61738178904406</v>
       </c>
       <c r="E397">
-        <v>12.82550239562988</v>
+        <v>12.8255033493042</v>
       </c>
       <c r="F397">
         <v>704700</v>
@@ -11276,16 +11276,16 @@
         <v>44818</v>
       </c>
       <c r="B398">
-        <v>12.91222035364996</v>
+        <v>12.91221940759994</v>
       </c>
       <c r="C398">
-        <v>13.01628112792969</v>
+        <v>13.01628017425537</v>
       </c>
       <c r="D398">
-        <v>12.78214376554915</v>
+        <v>12.78214282902956</v>
       </c>
       <c r="E398">
-        <v>13.01628112792969</v>
+        <v>13.01628017425537</v>
       </c>
       <c r="F398">
         <v>424100</v>
@@ -11302,16 +11302,16 @@
         <v>44819</v>
       </c>
       <c r="B399">
-        <v>13.03362423699404</v>
+        <v>13.03362327885737</v>
       </c>
       <c r="C399">
-        <v>13.1637008256955</v>
+        <v>13.16369985799655</v>
       </c>
       <c r="D399">
-        <v>12.87753348835443</v>
+        <v>12.8775325416924</v>
       </c>
       <c r="E399">
-        <v>12.97292232513428</v>
+        <v>12.97292137145996</v>
       </c>
       <c r="F399">
         <v>408800</v>
@@ -11328,16 +11328,16 @@
         <v>44820</v>
       </c>
       <c r="B400">
-        <v>12.94690745496337</v>
+        <v>12.94690650573951</v>
       </c>
       <c r="C400">
-        <v>13.00760936737061</v>
+        <v>13.00760841369629</v>
       </c>
       <c r="D400">
-        <v>12.65206817698272</v>
+        <v>12.65206724937549</v>
       </c>
       <c r="E400">
-        <v>13.00760936737061</v>
+        <v>13.00760841369629</v>
       </c>
       <c r="F400">
         <v>290300</v>
@@ -11354,16 +11354,16 @@
         <v>44823</v>
       </c>
       <c r="B401">
-        <v>13.02495342134261</v>
+        <v>13.02495246575963</v>
       </c>
       <c r="C401">
-        <v>13.08565533457873</v>
+        <v>13.08565437454232</v>
       </c>
       <c r="D401">
-        <v>12.81683104010162</v>
+        <v>12.81683009978765</v>
       </c>
       <c r="E401">
-        <v>12.99893760681152</v>
+        <v>12.99893665313721</v>
       </c>
       <c r="F401">
         <v>164800</v>
@@ -11406,16 +11406,16 @@
         <v>44825</v>
       </c>
       <c r="B403">
-        <v>12.94690745496337</v>
+        <v>12.94690650573951</v>
       </c>
       <c r="C403">
-        <v>13.22440285682678</v>
+        <v>13.22440188725789</v>
       </c>
       <c r="D403">
-        <v>12.92089164078752</v>
+        <v>12.92089069347106</v>
       </c>
       <c r="E403">
-        <v>13.00760936737061</v>
+        <v>13.00760841369629</v>
       </c>
       <c r="F403">
         <v>357300</v>
@@ -11484,16 +11484,16 @@
         <v>44830</v>
       </c>
       <c r="B406">
-        <v>13.10299705963317</v>
+        <v>13.10299802869966</v>
       </c>
       <c r="C406">
-        <v>13.10299705963317</v>
+        <v>13.10299802869966</v>
       </c>
       <c r="D406">
-        <v>12.816829744726</v>
+        <v>12.81683069262824</v>
       </c>
       <c r="E406">
-        <v>12.89487552642822</v>
+        <v>12.89487648010254</v>
       </c>
       <c r="F406">
         <v>294500</v>
@@ -11510,16 +11510,16 @@
         <v>44831</v>
       </c>
       <c r="B407">
-        <v>13.05963908475754</v>
+        <v>13.05964005387602</v>
       </c>
       <c r="C407">
-        <v>13.21572982184926</v>
+        <v>13.21573080255079</v>
       </c>
       <c r="D407">
-        <v>12.75612789391002</v>
+        <v>12.7561288405058</v>
       </c>
       <c r="E407">
-        <v>12.85151672363281</v>
+        <v>12.85151767730713</v>
       </c>
       <c r="F407">
         <v>377300</v>
@@ -11640,16 +11640,16 @@
         <v>44838</v>
       </c>
       <c r="B412">
-        <v>13.84876872377846</v>
+        <v>13.8487677604528</v>
       </c>
       <c r="C412">
-        <v>13.87478371167742</v>
+        <v>13.87478274654215</v>
       </c>
       <c r="D412">
-        <v>13.59728830208437</v>
+        <v>13.59728735625178</v>
       </c>
       <c r="E412">
-        <v>13.71002101898193</v>
+        <v>13.71002006530762</v>
       </c>
       <c r="F412">
         <v>443300</v>
@@ -11666,16 +11666,16 @@
         <v>44839</v>
       </c>
       <c r="B413">
-        <v>13.71869188161467</v>
+        <v>13.71869093333512</v>
       </c>
       <c r="C413">
-        <v>13.87478346018221</v>
+        <v>13.87478250111312</v>
       </c>
       <c r="D413">
-        <v>13.49322727890788</v>
+        <v>13.49322634621316</v>
       </c>
       <c r="E413">
-        <v>13.79673767089844</v>
+        <v>13.79673671722412</v>
       </c>
       <c r="F413">
         <v>659500</v>
@@ -11692,16 +11692,16 @@
         <v>44840</v>
       </c>
       <c r="B414">
-        <v>13.83142381793787</v>
+        <v>13.83142477461117</v>
       </c>
       <c r="C414">
-        <v>13.8747826792107</v>
+        <v>13.87478363888299</v>
       </c>
       <c r="D414">
-        <v>13.62330227623007</v>
+        <v>13.6233032185083</v>
       </c>
       <c r="E414">
-        <v>13.78806495666504</v>
+        <v>13.78806591033936</v>
       </c>
       <c r="F414">
         <v>290900</v>
@@ -11744,16 +11744,16 @@
         <v>44844</v>
       </c>
       <c r="B416">
-        <v>13.39783771648531</v>
+        <v>13.39783674839939</v>
       </c>
       <c r="C416">
-        <v>13.44986851874225</v>
+        <v>13.44986754689674</v>
       </c>
       <c r="D416">
-        <v>13.08565538394834</v>
+        <v>13.08565443841974</v>
       </c>
       <c r="E416">
-        <v>13.19838809967041</v>
+        <v>13.19838714599609</v>
       </c>
       <c r="F416">
         <v>320800</v>
@@ -11770,16 +11770,16 @@
         <v>44845</v>
       </c>
       <c r="B417">
-        <v>13.15502810579435</v>
+        <v>13.15502904461587</v>
       </c>
       <c r="C417">
-        <v>13.48455428644923</v>
+        <v>13.48455524878771</v>
       </c>
       <c r="D417">
-        <v>13.10299730800612</v>
+        <v>13.10299824311441</v>
       </c>
       <c r="E417">
-        <v>13.36314964294434</v>
+        <v>13.36315059661865</v>
       </c>
       <c r="F417">
         <v>377000</v>
@@ -11848,16 +11848,16 @@
         <v>44851</v>
       </c>
       <c r="B420">
-        <v>13.90947147558814</v>
+        <v>13.90947054284806</v>
       </c>
       <c r="C420">
-        <v>14.38641650444305</v>
+        <v>14.38641553972003</v>
       </c>
       <c r="D420">
-        <v>13.85743984574705</v>
+        <v>13.8574389164961</v>
       </c>
       <c r="E420">
-        <v>14.22165298461914</v>
+        <v>14.22165203094482</v>
       </c>
       <c r="F420">
         <v>683500</v>
@@ -11900,16 +11900,16 @@
         <v>44853</v>
       </c>
       <c r="B422">
-        <v>14.12626497125003</v>
+        <v>14.12626402397223</v>
       </c>
       <c r="C422">
-        <v>14.29102683707082</v>
+        <v>14.29102587874444</v>
       </c>
       <c r="D422">
-        <v>13.97017338973297</v>
+        <v>13.97017245292235</v>
       </c>
       <c r="E422">
-        <v>14.22165298461914</v>
+        <v>14.22165203094482</v>
       </c>
       <c r="F422">
         <v>315900</v>
@@ -11926,16 +11926,16 @@
         <v>44854</v>
       </c>
       <c r="B423">
-        <v>14.30837066945708</v>
+        <v>14.30836970230122</v>
       </c>
       <c r="C423">
-        <v>14.34305842257725</v>
+        <v>14.34305745307672</v>
       </c>
       <c r="D423">
-        <v>13.7880659506762</v>
+        <v>13.78806501868967</v>
       </c>
       <c r="E423">
-        <v>14.10892105102539</v>
+        <v>14.10892009735107</v>
       </c>
       <c r="F423">
         <v>503100</v>
@@ -11952,16 +11952,16 @@
         <v>44855</v>
       </c>
       <c r="B424">
-        <v>14.04821899347234</v>
+        <v>14.04821806779684</v>
       </c>
       <c r="C424">
-        <v>14.61188174388878</v>
+        <v>14.611880781072</v>
       </c>
       <c r="D424">
-        <v>13.9268135127958</v>
+        <v>13.92681259512004</v>
       </c>
       <c r="E424">
-        <v>14.47313404083252</v>
+        <v>14.4731330871582</v>
       </c>
       <c r="F424">
         <v>384600</v>
@@ -11978,16 +11978,16 @@
         <v>44858</v>
       </c>
       <c r="B425">
-        <v>14.42977345900874</v>
+        <v>14.42977440472623</v>
       </c>
       <c r="C425">
-        <v>14.61188084177905</v>
+        <v>14.61188179943172</v>
       </c>
       <c r="D425">
-        <v>14.16962194534029</v>
+        <v>14.16962287400762</v>
       </c>
       <c r="E425">
-        <v>14.55117893218994</v>
+        <v>14.55117988586426</v>
       </c>
       <c r="F425">
         <v>386000</v>
@@ -12082,16 +12082,16 @@
         <v>44862</v>
       </c>
       <c r="B429">
-        <v>13.98751532781336</v>
+        <v>13.98751438001506</v>
       </c>
       <c r="C429">
-        <v>14.27368267010579</v>
+        <v>14.2736817029167</v>
       </c>
       <c r="D429">
-        <v>13.9441572911642</v>
+        <v>13.94415634630386</v>
       </c>
       <c r="E429">
-        <v>14.07423305511475</v>
+        <v>14.07423210144043</v>
       </c>
       <c r="F429">
         <v>299000</v>
@@ -12108,16 +12108,16 @@
         <v>44865</v>
       </c>
       <c r="B430">
-        <v>13.83142359319562</v>
+        <v>13.8314245040402</v>
       </c>
       <c r="C430">
-        <v>14.77664410718</v>
+        <v>14.77664508027045</v>
       </c>
       <c r="D430">
-        <v>13.79673667014127</v>
+        <v>13.7967375787016</v>
       </c>
       <c r="E430">
-        <v>14.48180484771729</v>
+        <v>14.4818058013916</v>
       </c>
       <c r="F430">
         <v>704400</v>
@@ -12160,16 +12160,16 @@
         <v>44868</v>
       </c>
       <c r="B432">
-        <v>14.29969804192232</v>
+        <v>14.29969710584554</v>
       </c>
       <c r="C432">
-        <v>14.92406268196273</v>
+        <v>14.92406170501423</v>
       </c>
       <c r="D432">
-        <v>14.18696615772172</v>
+        <v>14.18696522902451</v>
       </c>
       <c r="E432">
-        <v>14.56852149963379</v>
+        <v>14.56852054595947</v>
       </c>
       <c r="F432">
         <v>724000</v>
@@ -12186,16 +12186,16 @@
         <v>44869</v>
       </c>
       <c r="B433">
-        <v>14.65523863598756</v>
+        <v>14.65523960108306</v>
       </c>
       <c r="C433">
-        <v>14.88937598685554</v>
+        <v>14.88937696736975</v>
       </c>
       <c r="D433">
-        <v>14.46446097268937</v>
+        <v>14.46446192522154</v>
       </c>
       <c r="E433">
-        <v>14.48180484771729</v>
+        <v>14.4818058013916</v>
       </c>
       <c r="F433">
         <v>346800</v>
@@ -12212,16 +12212,16 @@
         <v>44872</v>
       </c>
       <c r="B434">
-        <v>14.41243155351543</v>
+        <v>14.41243055602848</v>
       </c>
       <c r="C434">
-        <v>14.56852147273507</v>
+        <v>14.56852046444511</v>
       </c>
       <c r="D434">
-        <v>13.65798950094026</v>
+        <v>13.65798855566838</v>
       </c>
       <c r="E434">
-        <v>13.77939414978027</v>
+        <v>13.77939319610596</v>
       </c>
       <c r="F434">
         <v>371100</v>
@@ -12238,16 +12238,16 @@
         <v>44873</v>
       </c>
       <c r="B435">
-        <v>13.78806465738336</v>
+        <v>13.78806560214485</v>
       </c>
       <c r="C435">
-        <v>13.97884397364339</v>
+        <v>13.97884493147713</v>
       </c>
       <c r="D435">
-        <v>13.52791314939616</v>
+        <v>13.52791407633201</v>
       </c>
       <c r="E435">
-        <v>13.91814041137695</v>
+        <v>13.91814136505127</v>
       </c>
       <c r="F435">
         <v>348600</v>
@@ -12290,16 +12290,16 @@
         <v>44875</v>
       </c>
       <c r="B437">
-        <v>13.66666152473987</v>
+        <v>13.66666052673808</v>
       </c>
       <c r="C437">
-        <v>13.66666152473987</v>
+        <v>13.66666052673808</v>
       </c>
       <c r="D437">
-        <v>12.92956334322096</v>
+        <v>12.92956239904542</v>
       </c>
       <c r="E437">
-        <v>13.0596399307251</v>
+        <v>13.05963897705078</v>
       </c>
       <c r="F437">
         <v>706800</v>
@@ -12316,16 +12316,16 @@
         <v>44876</v>
       </c>
       <c r="B438">
-        <v>13.26776159752352</v>
+        <v>13.26776063121777</v>
       </c>
       <c r="C438">
-        <v>13.46721120901954</v>
+        <v>13.46721022818765</v>
       </c>
       <c r="D438">
-        <v>12.83417462261753</v>
+        <v>12.8341736878904</v>
       </c>
       <c r="E438">
-        <v>13.09432697296143</v>
+        <v>13.09432601928711</v>
       </c>
       <c r="F438">
         <v>692400</v>
@@ -12420,16 +12420,16 @@
         <v>44883</v>
       </c>
       <c r="B442">
-        <v>12.50464887576042</v>
+        <v>12.50464791070893</v>
       </c>
       <c r="C442">
-        <v>13.05096858318703</v>
+        <v>13.05096757597309</v>
       </c>
       <c r="D442">
-        <v>12.24449651598562</v>
+        <v>12.2444955710115</v>
       </c>
       <c r="E442">
-        <v>12.35722923278809</v>
+        <v>12.35722827911377</v>
       </c>
       <c r="F442">
         <v>380100</v>
@@ -12446,16 +12446,16 @@
         <v>44886</v>
       </c>
       <c r="B443">
-        <v>12.32254094570823</v>
+        <v>12.32254188030906</v>
       </c>
       <c r="C443">
-        <v>12.69542598110381</v>
+        <v>12.69542694398604</v>
       </c>
       <c r="D443">
-        <v>12.20113630402093</v>
+        <v>12.20113722941385</v>
       </c>
       <c r="E443">
-        <v>12.5740213394165</v>
+        <v>12.57402229309082</v>
       </c>
       <c r="F443">
         <v>274400</v>
@@ -12472,16 +12472,16 @@
         <v>44887</v>
       </c>
       <c r="B444">
-        <v>12.7127696339532</v>
+        <v>12.71276865215084</v>
       </c>
       <c r="C444">
-        <v>12.82550234367193</v>
+        <v>12.82550135316327</v>
       </c>
       <c r="D444">
-        <v>12.21848076034158</v>
+        <v>12.21847981671296</v>
       </c>
       <c r="E444">
-        <v>12.34855651855469</v>
+        <v>12.34855556488037</v>
       </c>
       <c r="F444">
         <v>318500</v>
@@ -12888,16 +12888,16 @@
         <v>44909</v>
       </c>
       <c r="B460">
-        <v>11.6201302951756</v>
+        <v>11.62013121322412</v>
       </c>
       <c r="C460">
-        <v>12.15777885787015</v>
+        <v>12.1577798183956</v>
       </c>
       <c r="D460">
-        <v>11.57677226041122</v>
+        <v>11.57677317503424</v>
       </c>
       <c r="E460">
-        <v>12.07106113433838</v>
+        <v>12.0710620880127</v>
       </c>
       <c r="F460">
         <v>413800</v>
@@ -12914,16 +12914,16 @@
         <v>44910</v>
       </c>
       <c r="B461">
-        <v>12.00168728602936</v>
+        <v>12.00168632820258</v>
       </c>
       <c r="C461">
-        <v>12.37457233940502</v>
+        <v>12.37457135181916</v>
       </c>
       <c r="D461">
-        <v>11.83692377672321</v>
+        <v>11.83692283204582</v>
       </c>
       <c r="E461">
-        <v>11.94965648651123</v>
+        <v>11.94965553283691</v>
       </c>
       <c r="F461">
         <v>318800</v>
@@ -12940,16 +12940,16 @@
         <v>44911</v>
       </c>
       <c r="B462">
-        <v>11.8022374437465</v>
+        <v>11.80223556265853</v>
       </c>
       <c r="C462">
-        <v>12.036374812801</v>
+        <v>12.03637289439528</v>
       </c>
       <c r="D462">
-        <v>11.7502074686243</v>
+        <v>11.75020559582908</v>
       </c>
       <c r="E462">
-        <v>11.96700096130371</v>
+        <v>11.96699905395508</v>
       </c>
       <c r="F462">
         <v>378200</v>
@@ -12992,16 +12992,16 @@
         <v>44915</v>
       </c>
       <c r="B464">
-        <v>12.14910685364452</v>
+        <v>12.14910779788323</v>
       </c>
       <c r="C464">
-        <v>12.53066301569336</v>
+        <v>12.53066398958693</v>
       </c>
       <c r="D464">
-        <v>11.94965642141332</v>
+        <v>11.94965735015058</v>
       </c>
       <c r="E464">
-        <v>12.27051067352295</v>
+        <v>12.27051162719727</v>
       </c>
       <c r="F464">
         <v>514000</v>
@@ -13018,16 +13018,16 @@
         <v>44916</v>
       </c>
       <c r="B465">
-        <v>12.44394612058876</v>
+        <v>12.44394516291018</v>
       </c>
       <c r="C465">
-        <v>12.57402187818315</v>
+        <v>12.57402091049403</v>
       </c>
       <c r="D465">
-        <v>12.10574799304122</v>
+        <v>12.10574706139017</v>
       </c>
       <c r="E465">
-        <v>12.3919153213501</v>
+        <v>12.39191436767578</v>
       </c>
       <c r="F465">
         <v>269600</v>
@@ -13044,16 +13044,16 @@
         <v>44917</v>
       </c>
       <c r="B466">
-        <v>12.31386823807765</v>
+        <v>12.3138691844211</v>
       </c>
       <c r="C466">
-        <v>12.50464671250883</v>
+        <v>12.50464767351395</v>
       </c>
       <c r="D466">
-        <v>12.18379249419359</v>
+        <v>12.18379343054047</v>
       </c>
       <c r="E466">
-        <v>12.40925788879395</v>
+        <v>12.40925884246826</v>
       </c>
       <c r="F466">
         <v>204000</v>
@@ -13174,16 +13174,16 @@
         <v>44924</v>
       </c>
       <c r="B471">
-        <v>12.73011210710919</v>
+        <v>12.73011308544174</v>
       </c>
       <c r="C471">
-        <v>12.8515159142006</v>
+        <v>12.85151690186326</v>
       </c>
       <c r="D471">
-        <v>12.305196301285</v>
+        <v>12.305197246962</v>
       </c>
       <c r="E471">
-        <v>12.40925788879395</v>
+        <v>12.40925884246826</v>
       </c>
       <c r="F471">
         <v>543100</v>
@@ -13200,16 +13200,16 @@
         <v>44928</v>
       </c>
       <c r="B472">
-        <v>12.37457302255445</v>
+        <v>12.37457203281387</v>
       </c>
       <c r="C472">
-        <v>12.37457302255445</v>
+        <v>12.37457203281387</v>
       </c>
       <c r="D472">
-        <v>11.75887946710778</v>
+        <v>11.75887852661148</v>
       </c>
       <c r="E472">
-        <v>11.9236421585083</v>
+        <v>11.92364120483398</v>
       </c>
       <c r="F472">
         <v>297000</v>
@@ -13304,16 +13304,16 @@
         <v>44932</v>
       </c>
       <c r="B476">
-        <v>12.05371766229979</v>
+        <v>12.05371673335289</v>
       </c>
       <c r="C476">
-        <v>12.67808314242369</v>
+        <v>12.67808216535866</v>
       </c>
       <c r="D476">
-        <v>12.05371766229979</v>
+        <v>12.05371673335289</v>
       </c>
       <c r="E476">
-        <v>12.37457275390625</v>
+        <v>12.37457180023193</v>
       </c>
       <c r="F476">
         <v>320800</v>
@@ -13330,16 +13330,16 @@
         <v>44935</v>
       </c>
       <c r="B477">
-        <v>12.25316845427848</v>
+        <v>12.2531675086351</v>
       </c>
       <c r="C477">
-        <v>12.40926003554367</v>
+        <v>12.40925907785385</v>
       </c>
       <c r="D477">
-        <v>11.9323141804568</v>
+        <v>11.93231325957548</v>
       </c>
       <c r="E477">
-        <v>12.35722923278809</v>
+        <v>12.35722827911377</v>
       </c>
       <c r="F477">
         <v>286600</v>
@@ -13434,16 +13434,16 @@
         <v>44939</v>
       </c>
       <c r="B481">
-        <v>12.42660170659828</v>
+        <v>12.42660265828026</v>
       </c>
       <c r="C481">
-        <v>12.54800634822573</v>
+        <v>12.54800730920539</v>
       </c>
       <c r="D481">
-        <v>12.175121313014</v>
+        <v>12.17512224543655</v>
       </c>
       <c r="E481">
-        <v>12.45261669158936</v>
+        <v>12.45261764526367</v>
       </c>
       <c r="F481">
         <v>303900</v>
@@ -13486,16 +13486,16 @@
         <v>44943</v>
       </c>
       <c r="B483">
-        <v>12.44394612058876</v>
+        <v>12.44394516291018</v>
       </c>
       <c r="C483">
-        <v>12.59136575359654</v>
+        <v>12.59136478457264</v>
       </c>
       <c r="D483">
-        <v>12.27918261216759</v>
+        <v>12.27918166716911</v>
       </c>
       <c r="E483">
-        <v>12.3919153213501</v>
+        <v>12.39191436767578</v>
       </c>
       <c r="F483">
         <v>249800</v>
@@ -13512,16 +13512,16 @@
         <v>44944</v>
       </c>
       <c r="B484">
-        <v>12.39191543921445</v>
+        <v>12.39191449740341</v>
       </c>
       <c r="C484">
-        <v>12.65206778387916</v>
+        <v>12.65206682229601</v>
       </c>
       <c r="D484">
-        <v>12.33988463948091</v>
+        <v>12.33988370162432</v>
       </c>
       <c r="E484">
-        <v>12.54800701141357</v>
+        <v>12.54800605773926</v>
       </c>
       <c r="F484">
         <v>275600</v>
@@ -13538,16 +13538,16 @@
         <v>44945</v>
       </c>
       <c r="B485">
-        <v>12.38324245508304</v>
+        <v>12.3832443016551</v>
       </c>
       <c r="C485">
-        <v>12.79081439971924</v>
+        <v>12.79081630706787</v>
       </c>
       <c r="D485">
-        <v>12.3138686126345</v>
+        <v>12.31387044886164</v>
       </c>
       <c r="E485">
-        <v>12.79081439971924</v>
+        <v>12.79081630706787</v>
       </c>
       <c r="F485">
         <v>287600</v>
@@ -13564,16 +13564,16 @@
         <v>44946</v>
       </c>
       <c r="B486">
-        <v>12.79081599768865</v>
+        <v>12.79081505361506</v>
       </c>
       <c r="C486">
-        <v>12.92089176177979</v>
+        <v>12.92089080810547</v>
       </c>
       <c r="D486">
-        <v>12.53933558064466</v>
+        <v>12.53933465513252</v>
       </c>
       <c r="E486">
-        <v>12.92089176177979</v>
+        <v>12.92089080810547</v>
       </c>
       <c r="F486">
         <v>436300</v>
@@ -13616,16 +13616,16 @@
         <v>44950</v>
       </c>
       <c r="B488">
-        <v>12.91222052973044</v>
+        <v>12.91221958304971</v>
       </c>
       <c r="C488">
-        <v>13.120342081128</v>
+        <v>13.1203411191885</v>
       </c>
       <c r="D488">
-        <v>12.87753360449751</v>
+        <v>12.87753266035991</v>
       </c>
       <c r="E488">
-        <v>13.00760936737061</v>
+        <v>13.00760841369629</v>
       </c>
       <c r="F488">
         <v>277800</v>
@@ -13642,16 +13642,16 @@
         <v>44951</v>
       </c>
       <c r="B489">
-        <v>12.92089179110254</v>
+        <v>12.92089087137781</v>
       </c>
       <c r="C489">
-        <v>13.49322730460639</v>
+        <v>13.49322634414212</v>
       </c>
       <c r="D489">
-        <v>12.87753375430813</v>
+        <v>12.87753283766967</v>
       </c>
       <c r="E489">
-        <v>13.39783763885498</v>
+        <v>13.39783668518066</v>
       </c>
       <c r="F489">
         <v>456200</v>
@@ -13798,16 +13798,16 @@
         <v>44959</v>
       </c>
       <c r="B495">
-        <v>13.88345539832519</v>
+        <v>13.88345443865667</v>
       </c>
       <c r="C495">
-        <v>14.17829467917431</v>
+        <v>14.17829369912556</v>
       </c>
       <c r="D495">
-        <v>13.71869188161467</v>
+        <v>13.71869093333512</v>
       </c>
       <c r="E495">
-        <v>13.79673767089844</v>
+        <v>13.79673671722412</v>
       </c>
       <c r="F495">
         <v>316200</v>
@@ -13824,16 +13824,16 @@
         <v>44960</v>
       </c>
       <c r="B496">
-        <v>13.796737697175</v>
+        <v>13.7967367151065</v>
       </c>
       <c r="C496">
-        <v>13.84009656097096</v>
+        <v>13.84009557581612</v>
       </c>
       <c r="D496">
-        <v>13.2417468869917</v>
+        <v>13.24174594442811</v>
       </c>
       <c r="E496">
-        <v>13.39783763885498</v>
+        <v>13.39783668518066</v>
       </c>
       <c r="F496">
         <v>321700</v>
@@ -13902,16 +13902,16 @@
         <v>44965</v>
       </c>
       <c r="B499">
-        <v>12.86018986403701</v>
+        <v>12.86018890323607</v>
       </c>
       <c r="C499">
-        <v>12.86018986403701</v>
+        <v>12.86018890323607</v>
       </c>
       <c r="D499">
-        <v>12.40925983125229</v>
+        <v>12.4092589041409</v>
       </c>
       <c r="E499">
-        <v>12.76480102539062</v>
+        <v>12.76480007171631</v>
       </c>
       <c r="F499">
         <v>266300</v>
@@ -13928,16 +13928,16 @@
         <v>44966</v>
       </c>
       <c r="B500">
-        <v>12.77347093611551</v>
+        <v>12.77347190491705</v>
       </c>
       <c r="C500">
-        <v>12.84284560779502</v>
+        <v>12.84284658185826</v>
       </c>
       <c r="D500">
-        <v>12.48730362006822</v>
+        <v>12.48730456716545</v>
       </c>
       <c r="E500">
-        <v>12.5740213394165</v>
+        <v>12.57402229309082</v>
       </c>
       <c r="F500">
         <v>357300</v>
@@ -13954,16 +13954,16 @@
         <v>44967</v>
       </c>
       <c r="B501">
-        <v>12.59136521408675</v>
+        <v>12.5913661690765</v>
       </c>
       <c r="C501">
-        <v>12.92089056280672</v>
+        <v>12.92089154278927</v>
       </c>
       <c r="D501">
-        <v>12.5740213394165</v>
+        <v>12.57402229309082</v>
       </c>
       <c r="E501">
-        <v>12.5740213394165</v>
+        <v>12.57402229309082</v>
       </c>
       <c r="F501">
         <v>402300</v>
@@ -14084,16 +14084,16 @@
         <v>44974</v>
       </c>
       <c r="B506">
-        <v>12.86886161019692</v>
+        <v>12.86886066099993</v>
       </c>
       <c r="C506">
-        <v>13.00760931052224</v>
+        <v>13.00760835109133</v>
       </c>
       <c r="D506">
-        <v>12.65206812168821</v>
+        <v>12.65206718848174</v>
       </c>
       <c r="E506">
-        <v>12.92956352233887</v>
+        <v>12.92956256866455</v>
       </c>
       <c r="F506">
         <v>233800</v>
@@ -14110,16 +14110,16 @@
         <v>44979</v>
       </c>
       <c r="B507">
-        <v>12.78214445985254</v>
+        <v>12.78214348230323</v>
       </c>
       <c r="C507">
-        <v>12.79948833667534</v>
+        <v>12.79948735779961</v>
       </c>
       <c r="D507">
-        <v>12.46996212005615</v>
+        <v>12.46996116638184</v>
       </c>
       <c r="E507">
-        <v>12.46996212005615</v>
+        <v>12.46996116638184</v>
       </c>
       <c r="F507">
         <v>337300</v>
@@ -14136,16 +14136,16 @@
         <v>44980</v>
       </c>
       <c r="B508">
-        <v>12.48730349236096</v>
+        <v>12.48730446357096</v>
       </c>
       <c r="C508">
-        <v>12.57402121082238</v>
+        <v>12.57402218877693</v>
       </c>
       <c r="D508">
-        <v>12.21848005373315</v>
+        <v>12.2184810040352</v>
       </c>
       <c r="E508">
-        <v>12.26183891296387</v>
+        <v>12.26183986663818</v>
       </c>
       <c r="F508">
         <v>330300</v>
@@ -14162,16 +14162,16 @@
         <v>44981</v>
       </c>
       <c r="B509">
-        <v>12.29652667400682</v>
+        <v>12.29652764271041</v>
       </c>
       <c r="C509">
-        <v>12.35722858487097</v>
+        <v>12.35722955835657</v>
       </c>
       <c r="D509">
-        <v>11.94965660349375</v>
+        <v>11.94965754487138</v>
       </c>
       <c r="E509">
-        <v>12.10574817657471</v>
+        <v>12.10574913024902</v>
       </c>
       <c r="F509">
         <v>297800</v>
@@ -14214,16 +14214,16 @@
         <v>44985</v>
       </c>
       <c r="B511">
-        <v>12.3138695350516</v>
+        <v>12.3138704920958</v>
       </c>
       <c r="C511">
-        <v>12.43527418193152</v>
+        <v>12.4352751484114</v>
       </c>
       <c r="D511">
-        <v>12.03637414447063</v>
+        <v>12.03637507994766</v>
       </c>
       <c r="E511">
-        <v>12.27051067352295</v>
+        <v>12.27051162719727</v>
       </c>
       <c r="F511">
         <v>313900</v>
@@ -14318,16 +14318,16 @@
         <v>44991</v>
       </c>
       <c r="B515">
-        <v>11.77622181426738</v>
+        <v>11.77622278292088</v>
       </c>
       <c r="C515">
-        <v>11.94965643355673</v>
+        <v>11.9496574164761</v>
       </c>
       <c r="D515">
-        <v>11.55075639569047</v>
+        <v>11.5507573457983</v>
       </c>
       <c r="E515">
-        <v>11.59411525726318</v>
+        <v>11.5941162109375</v>
       </c>
       <c r="F515">
         <v>373800</v>
@@ -14344,16 +14344,16 @@
         <v>44992</v>
       </c>
       <c r="B516">
-        <v>11.63747519168813</v>
+        <v>11.63747423730263</v>
       </c>
       <c r="C516">
-        <v>11.79356677693929</v>
+        <v>11.79356580975278</v>
       </c>
       <c r="D516">
-        <v>11.46404055640994</v>
+        <v>11.46403961624775</v>
       </c>
       <c r="E516">
-        <v>11.62880325317383</v>
+        <v>11.62880229949951</v>
       </c>
       <c r="F516">
         <v>380800</v>
@@ -14370,16 +14370,16 @@
         <v>44993</v>
       </c>
       <c r="B517">
-        <v>11.62880200120934</v>
+        <v>11.62880106772229</v>
       </c>
       <c r="C517">
-        <v>12.05371701864468</v>
+        <v>12.05371605104813</v>
       </c>
       <c r="D517">
-        <v>11.58544314030744</v>
+        <v>11.58544221030097</v>
       </c>
       <c r="E517">
-        <v>11.88028240203857</v>
+        <v>11.88028144836426</v>
       </c>
       <c r="F517">
         <v>358600</v>
@@ -14448,16 +14448,16 @@
         <v>44998</v>
       </c>
       <c r="B520">
-        <v>11.81090903623433</v>
+        <v>11.81090807692531</v>
       </c>
       <c r="C520">
-        <v>12.06238944730167</v>
+        <v>12.06238846756683</v>
       </c>
       <c r="D520">
-        <v>11.58544361196664</v>
+        <v>11.58544267097043</v>
       </c>
       <c r="E520">
-        <v>11.74153518676758</v>
+        <v>11.74153423309326</v>
       </c>
       <c r="F520">
         <v>345000</v>
@@ -14500,16 +14500,16 @@
         <v>45000</v>
       </c>
       <c r="B522">
-        <v>11.35997802761466</v>
+        <v>11.35997991052852</v>
       </c>
       <c r="C522">
-        <v>11.6981753076282</v>
+        <v>11.69817724659819</v>
       </c>
       <c r="D522">
-        <v>11.00443604623926</v>
+        <v>11.00443787022212</v>
       </c>
       <c r="E522">
-        <v>11.50739765167236</v>
+        <v>11.507399559021</v>
       </c>
       <c r="F522">
         <v>440000</v>
@@ -14526,16 +14526,16 @@
         <v>45001</v>
       </c>
       <c r="B523">
-        <v>11.60278689855765</v>
+        <v>11.60278785509156</v>
       </c>
       <c r="C523">
-        <v>11.68950379248619</v>
+        <v>11.68950475616904</v>
       </c>
       <c r="D523">
-        <v>11.4553672691775</v>
+        <v>11.45536821355813</v>
       </c>
       <c r="E523">
-        <v>11.56809997558594</v>
+        <v>11.56810092926025</v>
       </c>
       <c r="F523">
         <v>175800</v>
@@ -14604,16 +14604,16 @@
         <v>45006</v>
       </c>
       <c r="B526">
-        <v>11.35130813705404</v>
+        <v>11.35130619408181</v>
       </c>
       <c r="C526">
-        <v>11.48138391020375</v>
+        <v>11.48138194496681</v>
       </c>
       <c r="D526">
-        <v>11.09115576375302</v>
+        <v>11.09115386531036</v>
       </c>
       <c r="E526">
-        <v>11.14318656921387</v>
+        <v>11.14318466186523</v>
       </c>
       <c r="F526">
         <v>226400</v>
@@ -14734,16 +14734,16 @@
         <v>45013</v>
       </c>
       <c r="B531">
-        <v>11.596377903836</v>
+        <v>11.59637699316372</v>
       </c>
       <c r="C531">
-        <v>12.22344787202548</v>
+        <v>12.22344691210892</v>
       </c>
       <c r="D531">
-        <v>11.53455437700739</v>
+        <v>11.53455347119016</v>
       </c>
       <c r="E531">
-        <v>12.14395999908447</v>
+        <v>12.14395904541016</v>
       </c>
       <c r="F531">
         <v>324800</v>
@@ -14786,16 +14786,16 @@
         <v>45015</v>
       </c>
       <c r="B533">
-        <v>12.11746317654608</v>
+        <v>12.11746410981366</v>
       </c>
       <c r="C533">
-        <v>12.63854954564195</v>
+        <v>12.63855051904276</v>
       </c>
       <c r="D533">
-        <v>12.11746317654608</v>
+        <v>12.11746410981366</v>
       </c>
       <c r="E533">
-        <v>12.38242244720459</v>
+        <v>12.38242340087891</v>
       </c>
       <c r="F533">
         <v>400400</v>
@@ -14838,16 +14838,16 @@
         <v>45019</v>
       </c>
       <c r="B535">
-        <v>12.0556381739615</v>
+        <v>12.05563914253698</v>
       </c>
       <c r="C535">
-        <v>12.12629386341921</v>
+        <v>12.12629483767132</v>
       </c>
       <c r="D535">
-        <v>11.84367110558838</v>
+        <v>11.84367205713397</v>
       </c>
       <c r="E535">
-        <v>11.87016677856445</v>
+        <v>11.87016773223877</v>
       </c>
       <c r="F535">
         <v>364900</v>
@@ -14864,16 +14864,16 @@
         <v>45020</v>
       </c>
       <c r="B536">
-        <v>11.99381567662846</v>
+        <v>11.99381473405951</v>
       </c>
       <c r="C536">
-        <v>12.34709415397211</v>
+        <v>12.34709318363974</v>
       </c>
       <c r="D536">
-        <v>11.9319921536639</v>
+        <v>11.93199121595353</v>
       </c>
       <c r="E536">
-        <v>12.13512706756592</v>
+        <v>12.1351261138916</v>
       </c>
       <c r="F536">
         <v>247200</v>
@@ -14890,16 +14890,16 @@
         <v>45021</v>
       </c>
       <c r="B537">
-        <v>12.0997991593472</v>
+        <v>12.09980012215768</v>
       </c>
       <c r="C537">
-        <v>12.17928702692276</v>
+        <v>12.17928799605828</v>
       </c>
       <c r="D537">
-        <v>11.85250422644282</v>
+        <v>11.85250516957544</v>
       </c>
       <c r="E537">
-        <v>11.98498344421387</v>
+        <v>11.98498439788818</v>
       </c>
       <c r="F537">
         <v>241800</v>
@@ -14916,16 +14916,16 @@
         <v>45022</v>
       </c>
       <c r="B538">
-        <v>11.9054960746756</v>
+        <v>11.90549512592806</v>
       </c>
       <c r="C538">
-        <v>12.16162403303681</v>
+        <v>12.16162306387847</v>
       </c>
       <c r="D538">
-        <v>11.9054960746756</v>
+        <v>11.90549512592806</v>
       </c>
       <c r="E538">
-        <v>11.96732044219971</v>
+        <v>11.96731948852539</v>
       </c>
       <c r="F538">
         <v>195000</v>
@@ -15020,16 +15020,16 @@
         <v>45029</v>
       </c>
       <c r="B542">
-        <v>12.44424647272507</v>
+        <v>12.44424554409542</v>
       </c>
       <c r="C542">
-        <v>12.77986145019531</v>
+        <v>12.779860496521</v>
       </c>
       <c r="D542">
-        <v>12.24111071481414</v>
+        <v>12.24110980134313</v>
       </c>
       <c r="E542">
-        <v>12.77986145019531</v>
+        <v>12.779860496521</v>
       </c>
       <c r="F542">
         <v>638200</v>
@@ -15228,16 +15228,16 @@
         <v>45042</v>
       </c>
       <c r="B550">
-        <v>11.96731999660249</v>
+        <v>11.96732097039953</v>
       </c>
       <c r="C550">
-        <v>12.1351270627029</v>
+        <v>12.13512805015463</v>
       </c>
       <c r="D550">
-        <v>11.44623361101768</v>
+        <v>11.44623454241321</v>
       </c>
       <c r="E550">
-        <v>11.72002506256104</v>
+        <v>11.72002601623535</v>
       </c>
       <c r="F550">
         <v>531900</v>
@@ -15358,16 +15358,16 @@
         <v>45050</v>
       </c>
       <c r="B555">
-        <v>12.29410336534484</v>
+        <v>12.29410240961077</v>
       </c>
       <c r="C555">
-        <v>12.60322267885885</v>
+        <v>12.60322169909408</v>
       </c>
       <c r="D555">
-        <v>12.24111117018041</v>
+        <v>12.24111021856591</v>
       </c>
       <c r="E555">
-        <v>12.26760768890381</v>
+        <v>12.26760673522949</v>
       </c>
       <c r="F555">
         <v>314400</v>
@@ -15384,16 +15384,16 @@
         <v>45051</v>
       </c>
       <c r="B556">
-        <v>12.48840613154559</v>
+        <v>12.48840706540678</v>
       </c>
       <c r="C556">
-        <v>12.7798610799584</v>
+        <v>12.77986203561408</v>
       </c>
       <c r="D556">
-        <v>12.34709390121856</v>
+        <v>12.34709482451266</v>
       </c>
       <c r="E556">
-        <v>12.75336456298828</v>
+        <v>12.7533655166626</v>
       </c>
       <c r="F556">
         <v>207400</v>
@@ -15410,16 +15410,16 @@
         <v>45054</v>
       </c>
       <c r="B557">
-        <v>12.75336443353957</v>
+        <v>12.75336539252683</v>
       </c>
       <c r="C557">
-        <v>12.93883583903627</v>
+        <v>12.93883681197003</v>
       </c>
       <c r="D557">
-        <v>12.55906169809144</v>
+        <v>12.55906264246813</v>
       </c>
       <c r="E557">
-        <v>12.68270874023438</v>
+        <v>12.68270969390869</v>
       </c>
       <c r="F557">
         <v>175900</v>
@@ -15540,16 +15540,16 @@
         <v>45061</v>
       </c>
       <c r="B562">
-        <v>12.18811926030863</v>
+        <v>12.18811830246977</v>
       </c>
       <c r="C562">
-        <v>12.21461493553882</v>
+        <v>12.21461397561772</v>
       </c>
       <c r="D562">
-        <v>12.0114800216368</v>
+        <v>12.01147907767965</v>
       </c>
       <c r="E562">
-        <v>12.13512706756592</v>
+        <v>12.1351261138916</v>
       </c>
       <c r="F562">
         <v>405500</v>
@@ -15566,16 +15566,16 @@
         <v>45062</v>
       </c>
       <c r="B563">
-        <v>11.96732025977114</v>
+        <v>11.96731928817062</v>
       </c>
       <c r="C563">
-        <v>12.17928735075368</v>
+        <v>12.17928636194401</v>
       </c>
       <c r="D563">
-        <v>11.7023609749018</v>
+        <v>11.70236002481274</v>
       </c>
       <c r="E563">
-        <v>11.74652099609375</v>
+        <v>11.74652004241943</v>
       </c>
       <c r="F563">
         <v>517400</v>
@@ -15592,16 +15592,16 @@
         <v>45063</v>
       </c>
       <c r="B564">
-        <v>11.72002576068789</v>
+        <v>11.72002481977646</v>
       </c>
       <c r="C564">
-        <v>11.94965636340649</v>
+        <v>11.94965540405977</v>
       </c>
       <c r="D564">
-        <v>11.65820139178309</v>
+        <v>11.65820045583506</v>
       </c>
       <c r="E564">
-        <v>11.87900066375732</v>
+        <v>11.87899971008301</v>
       </c>
       <c r="F564">
         <v>694900</v>
@@ -15774,16 +15774,16 @@
         <v>45072</v>
       </c>
       <c r="B571">
-        <v>12.66504606573799</v>
+        <v>12.66504510805661</v>
       </c>
       <c r="C571">
-        <v>12.77986178543296</v>
+        <v>12.77986081906967</v>
       </c>
       <c r="D571">
-        <v>12.51490249708166</v>
+        <v>12.51490155075355</v>
       </c>
       <c r="E571">
-        <v>12.61205387115479</v>
+        <v>12.61205291748047</v>
       </c>
       <c r="F571">
         <v>345100</v>
@@ -15852,16 +15852,16 @@
         <v>45077</v>
       </c>
       <c r="B574">
-        <v>12.32059759150594</v>
+        <v>12.32059853037372</v>
       </c>
       <c r="C574">
-        <v>12.57672467970635</v>
+        <v>12.5767256380918</v>
       </c>
       <c r="D574">
-        <v>12.29410191818377</v>
+        <v>12.2941028550325</v>
       </c>
       <c r="E574">
-        <v>12.51490116119385</v>
+        <v>12.51490211486816</v>
       </c>
       <c r="F574">
         <v>244500</v>
@@ -15982,16 +15982,16 @@
         <v>45084</v>
       </c>
       <c r="B579">
-        <v>12.93883679423378</v>
+        <v>12.93883583860255</v>
       </c>
       <c r="C579">
-        <v>13.07131686067296</v>
+        <v>13.07131589525708</v>
       </c>
       <c r="D579">
-        <v>12.60322264739886</v>
+        <v>12.60322171655529</v>
       </c>
       <c r="E579">
-        <v>12.91234111785889</v>
+        <v>12.91234016418457</v>
       </c>
       <c r="F579">
         <v>411600</v>
@@ -16164,16 +16164,16 @@
         <v>45096</v>
       </c>
       <c r="B586">
-        <v>12.3824222070667</v>
+        <v>12.38242315735203</v>
       </c>
       <c r="C586">
-        <v>12.49723707458583</v>
+        <v>12.4972380336826</v>
       </c>
       <c r="D586">
-        <v>12.29410217113259</v>
+        <v>12.29410311463983</v>
       </c>
       <c r="E586">
-        <v>12.42658138275146</v>
+        <v>12.42658233642578</v>
       </c>
       <c r="F586">
         <v>259600</v>
@@ -16216,16 +16216,16 @@
         <v>45098</v>
       </c>
       <c r="B588">
-        <v>12.4619093592181</v>
+        <v>12.46191031019652</v>
       </c>
       <c r="C588">
-        <v>12.62088508865198</v>
+        <v>12.62088605176197</v>
       </c>
       <c r="D588">
-        <v>12.3117658019266</v>
+        <v>12.31176674144744</v>
       </c>
       <c r="E588">
-        <v>12.49723720550537</v>
+        <v>12.49723815917969</v>
       </c>
       <c r="F588">
         <v>375600</v>
@@ -16242,16 +16242,16 @@
         <v>45099</v>
       </c>
       <c r="B589">
-        <v>12.3559254939747</v>
+        <v>12.35592645038356</v>
       </c>
       <c r="C589">
-        <v>12.37358983779288</v>
+        <v>12.37359079556905</v>
       </c>
       <c r="D589">
-        <v>12.09979840458697</v>
+        <v>12.09979934117034</v>
       </c>
       <c r="E589">
-        <v>12.32059764862061</v>
+        <v>12.32059860229492</v>
       </c>
       <c r="F589">
         <v>425100</v>
@@ -16294,16 +16294,16 @@
         <v>45103</v>
       </c>
       <c r="B591">
-        <v>12.55906310546004</v>
+        <v>12.55906213955911</v>
       </c>
       <c r="C591">
-        <v>12.55906310546004</v>
+        <v>12.55906213955911</v>
       </c>
       <c r="D591">
-        <v>12.25877595412164</v>
+        <v>12.2587750113154</v>
       </c>
       <c r="E591">
-        <v>12.40008735656738</v>
+        <v>12.40008640289307</v>
       </c>
       <c r="F591">
         <v>210700</v>
@@ -16346,16 +16346,16 @@
         <v>45105</v>
       </c>
       <c r="B593">
-        <v>12.40891774251451</v>
+        <v>12.40891871841581</v>
       </c>
       <c r="C593">
-        <v>12.40891774251451</v>
+        <v>12.40891871841581</v>
       </c>
       <c r="D593">
-        <v>12.09096629052425</v>
+        <v>12.09096724142021</v>
       </c>
       <c r="E593">
-        <v>12.12629413604736</v>
+        <v>12.12629508972168</v>
       </c>
       <c r="F593">
         <v>308000</v>
@@ -16372,16 +16372,16 @@
         <v>45106</v>
       </c>
       <c r="B594">
-        <v>12.20578194064924</v>
+        <v>12.20578288543626</v>
       </c>
       <c r="C594">
-        <v>12.47074120194606</v>
+        <v>12.47074216724222</v>
       </c>
       <c r="D594">
-        <v>12.18811843911333</v>
+        <v>12.18811938253311</v>
       </c>
       <c r="E594">
-        <v>12.32059764862061</v>
+        <v>12.32059860229492</v>
       </c>
       <c r="F594">
         <v>228700</v>
@@ -16424,16 +16424,16 @@
         <v>45110</v>
       </c>
       <c r="B596">
-        <v>12.56789289807992</v>
+        <v>12.56789385714603</v>
       </c>
       <c r="C596">
-        <v>12.77102864594348</v>
+        <v>12.77102962051104</v>
       </c>
       <c r="D596">
-        <v>12.41775018307072</v>
+        <v>12.41775113067932</v>
       </c>
       <c r="E596">
-        <v>12.49723720550537</v>
+        <v>12.49723815917969</v>
       </c>
       <c r="F596">
         <v>362900</v>
@@ -16502,16 +16502,16 @@
         <v>45113</v>
       </c>
       <c r="B599">
-        <v>12.32943058639569</v>
+        <v>12.32942961462243</v>
       </c>
       <c r="C599">
-        <v>12.32943058639569</v>
+        <v>12.32942961462243</v>
       </c>
       <c r="D599">
-        <v>11.9849834410856</v>
+        <v>11.98498249646076</v>
       </c>
       <c r="E599">
-        <v>12.09979915618896</v>
+        <v>12.09979820251465</v>
       </c>
       <c r="F599">
         <v>381600</v>
@@ -16554,16 +16554,16 @@
         <v>45117</v>
       </c>
       <c r="B601">
-        <v>12.02031128863415</v>
+        <v>12.02031034122486</v>
       </c>
       <c r="C601">
-        <v>12.26760706375631</v>
+        <v>12.26760609685581</v>
       </c>
       <c r="D601">
-        <v>11.9849834410856</v>
+        <v>11.98498249646076</v>
       </c>
       <c r="E601">
-        <v>12.09979915618896</v>
+        <v>12.09979820251465</v>
       </c>
       <c r="F601">
         <v>369600</v>
@@ -16658,16 +16658,16 @@
         <v>45121</v>
       </c>
       <c r="B605">
-        <v>11.7995125518155</v>
+        <v>11.79951158364767</v>
       </c>
       <c r="C605">
-        <v>11.84367257377137</v>
+        <v>11.84367160198014</v>
       </c>
       <c r="D605">
-        <v>11.51688975894976</v>
+        <v>11.51688881397155</v>
       </c>
       <c r="E605">
-        <v>11.62287330627441</v>
+        <v>11.6228723526001</v>
       </c>
       <c r="F605">
         <v>340500</v>
@@ -16736,16 +16736,16 @@
         <v>45126</v>
       </c>
       <c r="B608">
-        <v>11.79951145556827</v>
+        <v>11.79951241067234</v>
       </c>
       <c r="C608">
-        <v>11.85250364544847</v>
+        <v>11.85250460484197</v>
       </c>
       <c r="D608">
-        <v>11.61404005441097</v>
+        <v>11.61404099450218</v>
       </c>
       <c r="E608">
-        <v>11.78184795379639</v>
+        <v>11.7818489074707</v>
       </c>
       <c r="F608">
         <v>216600</v>
@@ -16762,16 +16762,16 @@
         <v>45127</v>
       </c>
       <c r="B609">
-        <v>11.89666424646061</v>
+        <v>11.89666519310715</v>
       </c>
       <c r="C609">
-        <v>12.0997991593472</v>
+        <v>12.09980012215768</v>
       </c>
       <c r="D609">
-        <v>11.78184853132728</v>
+        <v>11.78184946883765</v>
       </c>
       <c r="E609">
-        <v>11.98498344421387</v>
+        <v>11.98498439788818</v>
       </c>
       <c r="F609">
         <v>484500</v>
@@ -16814,16 +16814,16 @@
         <v>45131</v>
       </c>
       <c r="B611">
-        <v>12.16162434519687</v>
+        <v>12.16162339013535</v>
       </c>
       <c r="C611">
-        <v>12.28527139885409</v>
+        <v>12.28527043408248</v>
       </c>
       <c r="D611">
-        <v>12.08213647225586</v>
+        <v>12.08213552343659</v>
       </c>
       <c r="E611">
-        <v>12.14395999908447</v>
+        <v>12.14395904541016</v>
       </c>
       <c r="F611">
         <v>358300</v>
@@ -17152,16 +17152,16 @@
         <v>45148</v>
       </c>
       <c r="B624">
-        <v>12.00264784913263</v>
+        <v>12.00264690586958</v>
       </c>
       <c r="C624">
-        <v>12.16162358507844</v>
+        <v>12.16162262932182</v>
       </c>
       <c r="D624">
-        <v>11.88783213342536</v>
+        <v>11.88783119918544</v>
       </c>
       <c r="E624">
-        <v>12.13512706756592</v>
+        <v>12.1351261138916</v>
       </c>
       <c r="F624">
         <v>461200</v>
@@ -17178,16 +17178,16 @@
         <v>45149</v>
       </c>
       <c r="B625">
-        <v>12.17045411367879</v>
+        <v>12.17045512457354</v>
       </c>
       <c r="C625">
-        <v>12.17045411367879</v>
+        <v>12.17045512457354</v>
       </c>
       <c r="D625">
-        <v>11.14594575458033</v>
+        <v>11.145946680378</v>
       </c>
       <c r="E625">
-        <v>11.48156070709229</v>
+        <v>11.4815616607666</v>
       </c>
       <c r="F625">
         <v>1844400</v>
@@ -17308,16 +17308,16 @@
         <v>45156</v>
       </c>
       <c r="B630">
-        <v>11.01346715759965</v>
+        <v>11.01346810595045</v>
       </c>
       <c r="C630">
-        <v>11.16361071950504</v>
+        <v>11.16361168078444</v>
       </c>
       <c r="D630">
-        <v>10.82799574832137</v>
+        <v>10.82799668070155</v>
       </c>
       <c r="E630">
-        <v>11.07529067993164</v>
+        <v>11.07529163360596</v>
       </c>
       <c r="F630">
         <v>567800</v>
@@ -17360,16 +17360,16 @@
         <v>45160</v>
       </c>
       <c r="B632">
-        <v>10.8014985905769</v>
+        <v>10.80149954114218</v>
       </c>
       <c r="C632">
-        <v>10.93397864208124</v>
+        <v>10.93397960430518</v>
       </c>
       <c r="D632">
-        <v>10.71317939852294</v>
+        <v>10.71318034131586</v>
       </c>
       <c r="E632">
-        <v>10.83682727813721</v>
+        <v>10.83682823181152</v>
       </c>
       <c r="F632">
         <v>430900</v>
@@ -17438,16 +17438,16 @@
         <v>45163</v>
       </c>
       <c r="B635">
-        <v>10.81916423333402</v>
+        <v>10.81916325571808</v>
       </c>
       <c r="C635">
-        <v>10.82799640628451</v>
+        <v>10.82799542787049</v>
       </c>
       <c r="D635">
-        <v>10.47471706880622</v>
+        <v>10.4747161223144</v>
       </c>
       <c r="E635">
-        <v>10.5542049407959</v>
+        <v>10.55420398712158</v>
       </c>
       <c r="F635">
         <v>909000</v>
@@ -17516,16 +17516,16 @@
         <v>45168</v>
       </c>
       <c r="B638">
-        <v>10.80149968042293</v>
+        <v>10.80149871570529</v>
       </c>
       <c r="C638">
-        <v>10.89865189645167</v>
+        <v>10.89865092305704</v>
       </c>
       <c r="D638">
-        <v>10.67785263061523</v>
+        <v>10.67785167694092</v>
       </c>
       <c r="E638">
-        <v>10.67785263061523</v>
+        <v>10.67785167694092</v>
       </c>
       <c r="F638">
         <v>250500</v>
@@ -17568,16 +17568,16 @@
         <v>45170</v>
       </c>
       <c r="B640">
-        <v>10.43055768871749</v>
+        <v>10.4305567571299</v>
       </c>
       <c r="C640">
-        <v>10.67785263061523</v>
+        <v>10.67785167694092</v>
       </c>
       <c r="D640">
-        <v>10.34223764546997</v>
+        <v>10.34223672177054</v>
       </c>
       <c r="E640">
-        <v>10.67785263061523</v>
+        <v>10.67785167694092</v>
       </c>
       <c r="F640">
         <v>686100</v>
@@ -17594,16 +17594,16 @@
         <v>45173</v>
       </c>
       <c r="B641">
-        <v>10.73967646488381</v>
+        <v>10.73967552129719</v>
       </c>
       <c r="C641">
-        <v>10.98697141390509</v>
+        <v>10.98697044859116</v>
       </c>
       <c r="D641">
-        <v>10.61602941151437</v>
+        <v>10.61602847879136</v>
       </c>
       <c r="E641">
-        <v>10.8544921875</v>
+        <v>10.85449123382568</v>
       </c>
       <c r="F641">
         <v>1190700</v>
@@ -17646,16 +17646,16 @@
         <v>45175</v>
       </c>
       <c r="B643">
-        <v>10.83682688889897</v>
+        <v>10.83682786565896</v>
       </c>
       <c r="C643">
-        <v>10.83682688889897</v>
+        <v>10.83682786565896</v>
       </c>
       <c r="D643">
-        <v>10.51887545053456</v>
+        <v>10.51887639863652</v>
       </c>
       <c r="E643">
-        <v>10.58069896697998</v>
+        <v>10.5806999206543</v>
       </c>
       <c r="F643">
         <v>683000</v>
@@ -17698,16 +17698,16 @@
         <v>45180</v>
       </c>
       <c r="B645">
-        <v>10.66902072462684</v>
+        <v>10.66901976379399</v>
       </c>
       <c r="C645">
-        <v>10.66902072462684</v>
+        <v>10.66901976379399</v>
       </c>
       <c r="D645">
-        <v>10.36873358081504</v>
+        <v>10.36873264702551</v>
       </c>
       <c r="E645">
-        <v>10.58953285217285</v>
+        <v>10.58953189849854</v>
       </c>
       <c r="F645">
         <v>427100</v>
@@ -17724,16 +17724,16 @@
         <v>45181</v>
       </c>
       <c r="B646">
-        <v>10.58070052099103</v>
+        <v>10.58069960184239</v>
       </c>
       <c r="C646">
-        <v>11.01346772651715</v>
+        <v>11.01346676977389</v>
       </c>
       <c r="D646">
-        <v>10.50121349200773</v>
+        <v>10.50121257976415</v>
       </c>
       <c r="E646">
-        <v>10.97813987731934</v>
+        <v>10.97813892364502</v>
       </c>
       <c r="F646">
         <v>893700</v>
@@ -17750,16 +17750,16 @@
         <v>45182</v>
       </c>
       <c r="B647">
-        <v>10.98697120790702</v>
+        <v>10.98697025346552</v>
       </c>
       <c r="C647">
-        <v>11.18127479963615</v>
+        <v>11.18127382831544</v>
       </c>
       <c r="D647">
-        <v>10.90748417892372</v>
+        <v>10.90748323138728</v>
       </c>
       <c r="E647">
-        <v>10.97813987731934</v>
+        <v>10.97813892364502</v>
       </c>
       <c r="F647">
         <v>757200</v>
@@ -17828,16 +17828,16 @@
         <v>45187</v>
       </c>
       <c r="B650">
-        <v>10.98697044803688</v>
+        <v>10.98697140324686</v>
       </c>
       <c r="C650">
-        <v>11.11945050507798</v>
+        <v>11.11945147180582</v>
       </c>
       <c r="D650">
-        <v>10.88981908003258</v>
+        <v>10.8898200267962</v>
       </c>
       <c r="E650">
-        <v>10.96930694580078</v>
+        <v>10.9693078994751</v>
       </c>
       <c r="F650">
         <v>518600</v>
@@ -17854,16 +17854,16 @@
         <v>45188</v>
       </c>
       <c r="B651">
-        <v>10.90748335995307</v>
+        <v>10.90748432141251</v>
       </c>
       <c r="C651">
-        <v>10.92514686208456</v>
+        <v>10.92514782510098</v>
       </c>
       <c r="D651">
-        <v>10.65135626192925</v>
+        <v>10.65135720081191</v>
       </c>
       <c r="E651">
-        <v>10.81916332244873</v>
+        <v>10.81916427612305</v>
       </c>
       <c r="F651">
         <v>303500</v>
@@ -17958,16 +17958,16 @@
         <v>45194</v>
       </c>
       <c r="B655">
-        <v>10.52770824784243</v>
+        <v>10.5277092023175</v>
       </c>
       <c r="C655">
-        <v>10.52770824784243</v>
+        <v>10.5277092023175</v>
       </c>
       <c r="D655">
-        <v>10.28041332508006</v>
+        <v>10.2804142571346</v>
       </c>
       <c r="E655">
-        <v>10.51887607574463</v>
+        <v>10.51887702941895</v>
       </c>
       <c r="F655">
         <v>523300</v>
@@ -18088,16 +18088,16 @@
         <v>45201</v>
       </c>
       <c r="B660">
-        <v>10.34223623048892</v>
+        <v>10.34223716266978</v>
       </c>
       <c r="C660">
-        <v>10.64252332570764</v>
+        <v>10.64252428495439</v>
       </c>
       <c r="D660">
-        <v>10.31574055805263</v>
+        <v>10.31574148784535</v>
       </c>
       <c r="E660">
-        <v>10.58069896697998</v>
+        <v>10.5806999206543</v>
       </c>
       <c r="F660">
         <v>1481800</v>
@@ -18192,16 +18192,16 @@
         <v>45205</v>
       </c>
       <c r="B664">
-        <v>10.49238096917127</v>
+        <v>10.49238000903137</v>
       </c>
       <c r="C664">
-        <v>10.52770881719074</v>
+        <v>10.52770785381805</v>
       </c>
       <c r="D664">
-        <v>10.30690955649846</v>
+        <v>10.30690861333073</v>
       </c>
       <c r="E664">
-        <v>10.42172527313232</v>
+        <v>10.42172431945801</v>
       </c>
       <c r="F664">
         <v>448100</v>
@@ -18218,16 +18218,16 @@
         <v>45208</v>
       </c>
       <c r="B665">
-        <v>10.40405990922002</v>
+        <v>10.40406086451619</v>
       </c>
       <c r="C665">
-        <v>10.40405990922002</v>
+        <v>10.40406086451619</v>
       </c>
       <c r="D665">
-        <v>10.14793282558812</v>
+        <v>10.14793375736682</v>
       </c>
       <c r="E665">
-        <v>10.38639640808105</v>
+        <v>10.38639736175537</v>
       </c>
       <c r="F665">
         <v>488200</v>
@@ -18270,16 +18270,16 @@
         <v>45210</v>
       </c>
       <c r="B667">
-        <v>10.76617113148967</v>
+        <v>10.76617208049289</v>
       </c>
       <c r="C667">
-        <v>10.8633233412009</v>
+        <v>10.86332429876778</v>
       </c>
       <c r="D667">
-        <v>10.65135626192925</v>
+        <v>10.65135720081191</v>
       </c>
       <c r="E667">
-        <v>10.81916332244873</v>
+        <v>10.81916427612305</v>
       </c>
       <c r="F667">
         <v>295000</v>
@@ -18322,16 +18322,16 @@
         <v>45215</v>
       </c>
       <c r="B669">
-        <v>10.55420476099649</v>
+        <v>10.55420378694452</v>
       </c>
       <c r="C669">
-        <v>10.57186910659654</v>
+        <v>10.57186813091432</v>
       </c>
       <c r="D669">
-        <v>10.28924547297216</v>
+        <v>10.28924452337339</v>
       </c>
       <c r="E669">
-        <v>10.33340549468994</v>
+        <v>10.33340454101562</v>
       </c>
       <c r="F669">
         <v>231100</v>
@@ -18348,16 +18348,16 @@
         <v>45216</v>
       </c>
       <c r="B670">
-        <v>10.28041459391915</v>
+        <v>10.28041362947353</v>
       </c>
       <c r="C670">
-        <v>10.28924592482465</v>
+        <v>10.28924495955052</v>
       </c>
       <c r="D670">
-        <v>10.08611099519748</v>
+        <v>10.08611004898023</v>
       </c>
       <c r="E670">
-        <v>10.16559886932373</v>
+        <v>10.16559791564941</v>
       </c>
       <c r="F670">
         <v>469700</v>
@@ -18504,16 +18504,16 @@
         <v>45224</v>
       </c>
       <c r="B676">
-        <v>10.8544909719335</v>
+        <v>10.85449193818719</v>
       </c>
       <c r="C676">
-        <v>11.01346669964223</v>
+        <v>11.01346768004774</v>
       </c>
       <c r="D676">
-        <v>10.65135606855661</v>
+        <v>10.65135701672747</v>
       </c>
       <c r="E676">
-        <v>10.71317958831787</v>
+        <v>10.71318054199219</v>
       </c>
       <c r="F676">
         <v>473900</v>
@@ -18530,16 +18530,16 @@
         <v>45225</v>
       </c>
       <c r="B677">
-        <v>10.75733967620977</v>
+        <v>10.75734060103088</v>
       </c>
       <c r="C677">
-        <v>11.14594598367937</v>
+        <v>11.14594694190941</v>
       </c>
       <c r="D677">
-        <v>10.75733967620977</v>
+        <v>10.75734060103088</v>
       </c>
       <c r="E677">
-        <v>11.09295463562012</v>
+        <v>11.09295558929443</v>
       </c>
       <c r="F677">
         <v>256900</v>
@@ -18738,16 +18738,16 @@
         <v>45238</v>
       </c>
       <c r="B685">
-        <v>11.04879601698819</v>
+        <v>11.04879506862047</v>
       </c>
       <c r="C685">
-        <v>11.49922674396159</v>
+        <v>11.49922575693138</v>
       </c>
       <c r="D685">
-        <v>10.95164379610232</v>
+        <v>10.95164285607361</v>
       </c>
       <c r="E685">
-        <v>11.11061954498291</v>
+        <v>11.11061859130859</v>
       </c>
       <c r="F685">
         <v>580500</v>
@@ -18764,16 +18764,16 @@
         <v>45239</v>
       </c>
       <c r="B686">
-        <v>11.08412378237843</v>
+        <v>11.08412284733056</v>
       </c>
       <c r="C686">
-        <v>11.42857011259495</v>
+        <v>11.42856914848987</v>
       </c>
       <c r="D686">
-        <v>10.98697156223949</v>
+        <v>10.98697063538731</v>
       </c>
       <c r="E686">
-        <v>11.30492305755615</v>
+        <v>11.30492210388184</v>
       </c>
       <c r="F686">
         <v>387200</v>
@@ -18816,16 +18816,16 @@
         <v>45243</v>
       </c>
       <c r="B688">
-        <v>11.5257203953793</v>
+        <v>11.52572135790442</v>
       </c>
       <c r="C688">
-        <v>11.67586394464517</v>
+        <v>11.67586491970893</v>
       </c>
       <c r="D688">
-        <v>11.41973686218262</v>
+        <v>11.41973781585693</v>
       </c>
       <c r="E688">
-        <v>11.41973686218262</v>
+        <v>11.41973781585693</v>
       </c>
       <c r="F688">
         <v>1261800</v>
@@ -18842,16 +18842,16 @@
         <v>45244</v>
       </c>
       <c r="B689">
-        <v>11.43740242833197</v>
+        <v>11.43740150045204</v>
       </c>
       <c r="C689">
-        <v>12.04680890709768</v>
+        <v>12.04680792977855</v>
       </c>
       <c r="D689">
-        <v>11.43740242833197</v>
+        <v>11.43740150045204</v>
       </c>
       <c r="E689">
-        <v>11.7553539276123</v>
+        <v>11.75535297393799</v>
       </c>
       <c r="F689">
         <v>721400</v>
@@ -18868,16 +18868,16 @@
         <v>45246</v>
       </c>
       <c r="B690">
-        <v>11.92316028866599</v>
+        <v>11.92315934200401</v>
       </c>
       <c r="C690">
-        <v>12.0114803314209</v>
+        <v>12.01147937774658</v>
       </c>
       <c r="D690">
-        <v>11.83484024591108</v>
+        <v>11.83483930626143</v>
       </c>
       <c r="E690">
-        <v>12.0114803314209</v>
+        <v>12.01147937774658</v>
       </c>
       <c r="F690">
         <v>1649200</v>
@@ -18894,16 +18894,16 @@
         <v>45247</v>
       </c>
       <c r="B691">
-        <v>12.03797517852852</v>
+        <v>12.03797615660084</v>
       </c>
       <c r="C691">
-        <v>12.12629437292037</v>
+        <v>12.12629535816852</v>
       </c>
       <c r="D691">
-        <v>11.65820020002493</v>
+        <v>11.65820114724094</v>
       </c>
       <c r="E691">
-        <v>11.7376880645752</v>
+        <v>11.73768901824951</v>
       </c>
       <c r="F691">
         <v>439600</v>
@@ -18920,16 +18920,16 @@
         <v>45250</v>
       </c>
       <c r="B692">
-        <v>11.72885740781734</v>
+        <v>11.7288564562926</v>
       </c>
       <c r="C692">
-        <v>11.7553539276123</v>
+        <v>11.75535297393799</v>
       </c>
       <c r="D692">
-        <v>11.43740242833197</v>
+        <v>11.43740150045204</v>
       </c>
       <c r="E692">
-        <v>11.7553539276123</v>
+        <v>11.75535297393799</v>
       </c>
       <c r="F692">
         <v>225200</v>
@@ -19440,16 +19440,16 @@
         <v>45278</v>
       </c>
       <c r="B712">
-        <v>12.21461487129233</v>
+        <v>12.21461390856854</v>
       </c>
       <c r="C712">
-        <v>12.21461487129233</v>
+        <v>12.21461390856854</v>
       </c>
       <c r="D712">
-        <v>11.97615211091021</v>
+        <v>11.97615116698143</v>
       </c>
       <c r="E712">
-        <v>12.09979915618896</v>
+        <v>12.09979820251465</v>
       </c>
       <c r="F712">
         <v>422800</v>
@@ -28558,6 +28558,58 @@
         <v>0</v>
       </c>
       <c r="H1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8">
+      <c r="A1063" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1063">
+        <v>19.34000015258789</v>
+      </c>
+      <c r="C1063">
+        <v>19.59000015258789</v>
+      </c>
+      <c r="D1063">
+        <v>18.90999984741211</v>
+      </c>
+      <c r="E1063">
+        <v>18.90999984741211</v>
+      </c>
+      <c r="F1063">
+        <v>153400</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8">
+      <c r="A1064" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1064">
+        <v>18.84000015258789</v>
+      </c>
+      <c r="C1064">
+        <v>19.20000076293945</v>
+      </c>
+      <c r="D1064">
+        <v>18.69000053405762</v>
+      </c>
+      <c r="E1064">
+        <v>19.06999969482422</v>
+      </c>
+      <c r="F1064">
+        <v>95100</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
         <v>0</v>
       </c>
     </row>
@@ -28611,34 +28663,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C2">
-        <v>13.42543138821303</v>
+        <v>13.43608910633046</v>
       </c>
       <c r="D2">
-        <v>12.66980238936326</v>
+        <v>12.66980286201976</v>
       </c>
       <c r="E2">
         <v>12.14910686009202</v>
       </c>
       <c r="F2">
-        <v>2.48793197140004</v>
+        <v>2.497715178174735</v>
       </c>
       <c r="G2">
-        <v>9.304776071640489</v>
+        <v>9.304775126772062</v>
       </c>
       <c r="H2">
-        <v>11.92712125155436</v>
+        <v>11.92712130474148</v>
       </c>
       <c r="I2">
-        <v>13.96547412362603</v>
+        <v>13.97006544311565</v>
       </c>
       <c r="J2">
-        <v>2.038352872071675</v>
+        <v>2.042944138374176</v>
       </c>
       <c r="K2">
-        <v>23.37064751220629</v>
+        <v>23.37064957033347</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -28646,34 +28698,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C3">
-        <v>13.67533199926518</v>
+        <v>13.6860933867979</v>
       </c>
       <c r="D3">
-        <v>12.87701263482818</v>
+        <v>12.87753314389542</v>
       </c>
       <c r="E3">
         <v>10.57186889648438</v>
       </c>
       <c r="F3">
-        <v>2.579958771410636</v>
+        <v>2.589443493981738</v>
       </c>
       <c r="G3">
-        <v>9.434852660133124</v>
+        <v>9.434851702055862</v>
       </c>
       <c r="H3">
-        <v>12.10863126974292</v>
+        <v>12.10969359507654</v>
       </c>
       <c r="I3">
-        <v>14.16747399327634</v>
+        <v>14.17309824222119</v>
       </c>
       <c r="J3">
-        <v>2.058842723533425</v>
+        <v>2.063404647144651</v>
       </c>
       <c r="K3">
-        <v>24.39792940337077</v>
+        <v>24.39793155196515</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -28681,34 +28733,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C4">
-        <v>13.15462562526833</v>
+        <v>13.16524722979123</v>
       </c>
       <c r="D4">
-        <v>12.44394664283557</v>
+        <v>12.45261687291925</v>
       </c>
       <c r="E4">
         <v>10.37756481909819</v>
       </c>
       <c r="F4">
-        <v>2.395597957635715</v>
+        <v>2.405828628770962</v>
       </c>
       <c r="G4">
-        <v>9.157357261217937</v>
+        <v>9.157356331319392</v>
       </c>
       <c r="H4">
         <v>11.69817573041659</v>
       </c>
       <c r="I4">
-        <v>13.70684561884487</v>
+        <v>13.71220588623664</v>
       </c>
       <c r="J4">
-        <v>2.008669888428278</v>
+        <v>2.014030155820043</v>
       </c>
       <c r="K4">
-        <v>22.25775909423828</v>
+        <v>22.25776100158691</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -28716,34 +28768,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C5">
-        <v>13.41492594917578</v>
+        <v>13.42541528577975</v>
       </c>
       <c r="D5">
-        <v>12.66166305541992</v>
+        <v>12.66941070556641</v>
       </c>
       <c r="E5">
         <v>12.17045402526855</v>
       </c>
       <c r="F5">
-        <v>2.474514542803979</v>
+        <v>2.483973998840863</v>
       </c>
       <c r="G5">
-        <v>9.391493797302246</v>
+        <v>9.39149284362793</v>
       </c>
       <c r="H5">
         <v>11.9231595993042</v>
       </c>
       <c r="I5">
-        <v>13.94711017608643</v>
+        <v>13.94996929168701</v>
       </c>
       <c r="J5">
-        <v>2.023950576782227</v>
+        <v>2.026809692382812</v>
       </c>
       <c r="K5">
-        <v>22.77996063232422</v>
+        <v>22.77996444702148</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -28751,31 +28803,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C6">
-        <v>575938.9255419415</v>
+        <v>575089.0874882408</v>
       </c>
       <c r="D6">
-        <v>399400</v>
+        <v>398800</v>
       </c>
       <c r="E6">
         <v>201600</v>
       </c>
       <c r="F6">
-        <v>585846.6838223436</v>
+        <v>585623.6673080361</v>
       </c>
       <c r="G6">
         <v>72900</v>
       </c>
       <c r="H6">
-        <v>252900</v>
+        <v>252600</v>
       </c>
       <c r="I6">
-        <v>690100</v>
+        <v>689200</v>
       </c>
       <c r="J6">
-        <v>437200</v>
+        <v>436600</v>
       </c>
       <c r="K6">
         <v>7012500</v>
@@ -28786,10 +28838,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C7">
-        <v>0.00216400754005655</v>
+        <v>0.00215993603010348</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -28798,7 +28850,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03447435349365675</v>
+        <v>0.03444200425674866</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -28821,7 +28873,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C8">
         <v>0</v>
